--- a/docs/agent_pickrates.xlsx
+++ b/docs/agent_pickrates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natha\Documents\projects\final-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{349CB8A2-67B6-4AC9-85F5-9F40A28F5840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA3ED8D-1BC7-412D-B659-E2BC933B3497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="6" activeTab="14" xr2:uid="{65227F77-6304-4F56-BEB8-9B9F1C733C76}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="6" activeTab="13" xr2:uid="{65227F77-6304-4F56-BEB8-9B9F1C733C76}"/>
   </bookViews>
   <sheets>
     <sheet name="E1A1" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="41">
   <si>
     <t>Agent</t>
   </si>
@@ -156,67 +156,22 @@
     <t>E5A1</t>
   </si>
   <si>
-    <t>Episode_Test</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
-    <t>Episode_2_Act 2</t>
+    <t>Class</t>
   </si>
   <si>
-    <t>Episode_3_Act_1</t>
+    <t>Duelist</t>
   </si>
   <si>
-    <t>Episode_3_Act_2</t>
+    <t>Initiator</t>
   </si>
   <si>
-    <t>Episode_3_Act_3</t>
+    <t>Controller</t>
   </si>
   <si>
-    <t>Episode_2_Act_3</t>
-  </si>
-  <si>
-    <t>Episode_4_Act_1</t>
-  </si>
-  <si>
-    <t>Episode_4_Act_2</t>
-  </si>
-  <si>
-    <t>Episode_4_Act_3</t>
-  </si>
-  <si>
-    <t>Episode_5_Act_1</t>
-  </si>
-  <si>
-    <t>Episode_1_Act_1</t>
-  </si>
-  <si>
-    <t>Episode_1_Act_2</t>
-  </si>
-  <si>
-    <t>Episode_1_Act_3</t>
-  </si>
-  <si>
-    <t>Episode_2_Act_1</t>
-  </si>
-  <si>
-    <t>Person</t>
-  </si>
-  <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>Josh</t>
-  </si>
-  <si>
-    <t>Bob</t>
-  </si>
-  <si>
-    <t>Michael</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tan </t>
+    <t>Sentinel</t>
   </si>
 </sst>
 </file>
@@ -277,13 +232,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1397,14 +1351,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF742D03-DFFC-4725-912B-233258B03D56}">
   <dimension ref="A1:E204"/>
   <sheetViews>
-    <sheetView topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="C139" sqref="C139"/>
+    <sheetView tabSelected="1" topLeftCell="A177" workbookViewId="0">
+      <selection activeCell="G199" sqref="G199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="4" max="5" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -1412,13 +1367,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>35</v>
@@ -1428,3451 +1383,3451 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="3">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="4">
-        <v>44197</v>
-      </c>
-      <c r="E2" t="s">
-        <v>46</v>
+      <c r="E2" s="4">
+        <v>43984</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="3">
         <v>0.104</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="4">
-        <v>44197</v>
-      </c>
-      <c r="E3" t="s">
-        <v>46</v>
+      <c r="E3" s="4">
+        <v>43984</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="3">
         <v>9.0999999999999998E-2</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="4">
-        <v>44197</v>
-      </c>
-      <c r="E4" t="s">
-        <v>46</v>
+      <c r="E4" s="4">
+        <v>43984</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="3">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="4">
-        <v>44197</v>
-      </c>
-      <c r="E5" t="s">
-        <v>46</v>
+      <c r="E5" s="4">
+        <v>43984</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="3">
         <v>0.109</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="4">
-        <v>44197</v>
-      </c>
-      <c r="E6" t="s">
-        <v>46</v>
+      <c r="E6" s="4">
+        <v>43984</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="3">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="4">
-        <v>44197</v>
-      </c>
-      <c r="E7" t="s">
-        <v>46</v>
+      <c r="E7" s="4">
+        <v>43984</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="3">
         <v>0.122</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="4">
-        <v>44197</v>
-      </c>
-      <c r="E8" t="s">
-        <v>46</v>
+      <c r="E8" s="4">
+        <v>43984</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="3">
         <v>0.13400000000000001</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="4">
-        <v>44197</v>
-      </c>
-      <c r="E9" t="s">
-        <v>46</v>
+      <c r="E9" s="4">
+        <v>43984</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="3">
         <v>0.17899999999999999</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="4">
-        <v>44197</v>
-      </c>
-      <c r="E10" t="s">
-        <v>46</v>
+      <c r="E10" s="4">
+        <v>43984</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="3">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="4">
-        <v>44197</v>
-      </c>
-      <c r="E11" t="s">
-        <v>46</v>
+      <c r="E11" s="4">
+        <v>43984</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="4">
-        <v>44197</v>
-      </c>
-      <c r="E12" t="s">
-        <v>46</v>
+      <c r="E12" s="4">
+        <v>43984</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="3">
         <v>3.1E-2</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="4">
-        <v>44228</v>
-      </c>
-      <c r="E13" t="s">
-        <v>47</v>
+      <c r="E13" s="4">
+        <v>44047</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="3">
         <v>3.1E-2</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="4">
-        <v>44228</v>
-      </c>
-      <c r="E14" t="s">
-        <v>47</v>
+      <c r="E14" s="4">
+        <v>44047</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="3">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="4">
-        <v>44228</v>
-      </c>
-      <c r="E15" t="s">
-        <v>47</v>
+      <c r="E15" s="4">
+        <v>44047</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="3">
         <v>0.11899999999999999</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="4">
-        <v>44228</v>
-      </c>
-      <c r="E16" t="s">
-        <v>47</v>
+      <c r="E16" s="4">
+        <v>44047</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="3">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="4">
-        <v>44228</v>
-      </c>
-      <c r="E17" t="s">
-        <v>47</v>
+      <c r="E17" s="4">
+        <v>44047</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="3">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="4">
-        <v>44228</v>
-      </c>
-      <c r="E18" t="s">
-        <v>47</v>
+      <c r="E18" s="4">
+        <v>44047</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="3">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="4">
-        <v>44228</v>
-      </c>
-      <c r="E19" t="s">
-        <v>47</v>
+      <c r="E19" s="4">
+        <v>44047</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="3">
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="4">
-        <v>44228</v>
-      </c>
-      <c r="E20" t="s">
-        <v>47</v>
+      <c r="E20" s="4">
+        <v>44047</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="3">
         <v>0.11600000000000001</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="4">
-        <v>44228</v>
-      </c>
-      <c r="E21" t="s">
-        <v>47</v>
+      <c r="E21" s="4">
+        <v>44047</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="3">
         <v>0.10199999999999999</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="4">
-        <v>44228</v>
-      </c>
-      <c r="E22" t="s">
-        <v>47</v>
+      <c r="E22" s="4">
+        <v>44047</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="3">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="4">
-        <v>44228</v>
-      </c>
-      <c r="E23" t="s">
-        <v>47</v>
+      <c r="E23" s="4">
+        <v>44047</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="3">
         <v>0.01</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="4">
-        <v>44228</v>
-      </c>
-      <c r="E24" t="s">
-        <v>47</v>
+      <c r="E24" s="4">
+        <v>44047</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="3">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="4">
-        <v>44256</v>
-      </c>
-      <c r="E25" t="s">
-        <v>48</v>
+      <c r="E25" s="4">
+        <v>44117</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="3">
         <v>0.03</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="4">
-        <v>44256</v>
-      </c>
-      <c r="E26" t="s">
-        <v>48</v>
+      <c r="E26" s="4">
+        <v>44117</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="3">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="4">
-        <v>44256</v>
-      </c>
-      <c r="E27" t="s">
-        <v>48</v>
+      <c r="E27" s="4">
+        <v>44117</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="3">
         <v>0.128</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="4">
-        <v>44256</v>
-      </c>
-      <c r="E28" t="s">
-        <v>48</v>
+      <c r="E28" s="4">
+        <v>44117</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="4">
-        <v>44256</v>
-      </c>
-      <c r="E29" t="s">
-        <v>48</v>
+      <c r="E29" s="4">
+        <v>44117</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="3">
         <v>0.156</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="4">
-        <v>44256</v>
-      </c>
-      <c r="E30" t="s">
-        <v>48</v>
+      <c r="E30" s="4">
+        <v>44117</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="3">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="4">
-        <v>44256</v>
-      </c>
-      <c r="E31" t="s">
-        <v>48</v>
+      <c r="E31" s="4">
+        <v>44117</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="3">
         <v>0.10299999999999999</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>23</v>
       </c>
-      <c r="D32" s="4">
-        <v>44256</v>
-      </c>
-      <c r="E32" t="s">
-        <v>48</v>
+      <c r="E32" s="4">
+        <v>44117</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>8</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="3">
         <v>0.15</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>23</v>
       </c>
-      <c r="D33" s="4">
-        <v>44256</v>
-      </c>
-      <c r="E33" t="s">
-        <v>48</v>
+      <c r="E33" s="4">
+        <v>44117</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="3">
         <v>0.08</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>23</v>
       </c>
-      <c r="D34" s="4">
-        <v>44256</v>
-      </c>
-      <c r="E34" t="s">
-        <v>48</v>
+      <c r="E34" s="4">
+        <v>44117</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>13</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="3">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>23</v>
       </c>
-      <c r="D35" s="4">
-        <v>44256</v>
-      </c>
-      <c r="E35" t="s">
-        <v>48</v>
+      <c r="E35" s="4">
+        <v>44117</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>10</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="3">
         <v>7.8E-2</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>23</v>
       </c>
-      <c r="D36" s="4">
-        <v>44256</v>
-      </c>
-      <c r="E36" t="s">
-        <v>48</v>
+      <c r="E36" s="4">
+        <v>44117</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" s="3">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>23</v>
       </c>
-      <c r="D37" s="4">
-        <v>44256</v>
-      </c>
-      <c r="E37" t="s">
-        <v>48</v>
+      <c r="E37" s="4">
+        <v>44117</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B38" s="3">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="C38" t="s">
-        <v>26</v>
-      </c>
-      <c r="D38" s="4">
-        <v>44287</v>
-      </c>
-      <c r="E38" t="s">
-        <v>37</v>
+        <v>1</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="3">
+        <v>2.3E-2</v>
+      </c>
+      <c r="D38" t="s">
+        <v>24</v>
+      </c>
+      <c r="E38" s="4">
+        <v>44208</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B39" s="3">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="C39" t="s">
-        <v>26</v>
-      </c>
-      <c r="D39" s="4">
-        <v>44287</v>
-      </c>
-      <c r="E39" t="s">
-        <v>37</v>
+        <v>2</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" s="3">
+        <v>9.4E-2</v>
+      </c>
+      <c r="D39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E39" s="4">
+        <v>44208</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B40" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="C40" t="s">
-        <v>26</v>
-      </c>
-      <c r="D40" s="4">
-        <v>44287</v>
-      </c>
-      <c r="E40" t="s">
-        <v>37</v>
+      <c r="A40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="3">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="D40" t="s">
+        <v>24</v>
+      </c>
+      <c r="E40" s="4">
+        <v>44208</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>3</v>
-      </c>
-      <c r="B41" s="3">
-        <v>4.7E-2</v>
-      </c>
-      <c r="C41" t="s">
-        <v>26</v>
-      </c>
-      <c r="D41" s="4">
-        <v>44287</v>
-      </c>
-      <c r="E41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" t="s">
         <v>37</v>
+      </c>
+      <c r="C41" s="3">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="D41" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41" s="4">
+        <v>44208</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>4</v>
-      </c>
-      <c r="B42" s="3">
-        <v>0.14899999999999999</v>
-      </c>
-      <c r="C42" t="s">
-        <v>26</v>
-      </c>
-      <c r="D42" s="4">
-        <v>44287</v>
-      </c>
-      <c r="E42" t="s">
-        <v>37</v>
+        <v>12</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="3">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="D42" t="s">
+        <v>24</v>
+      </c>
+      <c r="E42" s="4">
+        <v>44208</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>12</v>
-      </c>
-      <c r="B43" s="3">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="C43" t="s">
-        <v>26</v>
-      </c>
-      <c r="D43" s="4">
-        <v>44287</v>
-      </c>
-      <c r="E43" t="s">
-        <v>37</v>
+        <v>5</v>
+      </c>
+      <c r="B43" t="s">
+        <v>39</v>
+      </c>
+      <c r="C43" s="3">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="D43" t="s">
+        <v>24</v>
+      </c>
+      <c r="E43" s="4">
+        <v>44208</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>5</v>
-      </c>
-      <c r="B44" s="3">
-        <v>0.111</v>
-      </c>
-      <c r="C44" t="s">
-        <v>26</v>
-      </c>
-      <c r="D44" s="4">
-        <v>44287</v>
-      </c>
-      <c r="E44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" t="s">
         <v>37</v>
+      </c>
+      <c r="C44" s="3">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="D44" t="s">
+        <v>24</v>
+      </c>
+      <c r="E44" s="4">
+        <v>44208</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>6</v>
-      </c>
-      <c r="B45" s="3">
-        <v>5.1999999999999998E-2</v>
-      </c>
-      <c r="C45" t="s">
-        <v>26</v>
-      </c>
-      <c r="D45" s="4">
-        <v>44287</v>
-      </c>
-      <c r="E45" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" t="s">
         <v>37</v>
+      </c>
+      <c r="C45" s="3">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="D45" t="s">
+        <v>24</v>
+      </c>
+      <c r="E45" s="4">
+        <v>44208</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>7</v>
-      </c>
-      <c r="B46" s="3">
-        <v>9.7000000000000003E-2</v>
-      </c>
-      <c r="C46" t="s">
-        <v>26</v>
-      </c>
-      <c r="D46" s="4">
-        <v>44287</v>
-      </c>
-      <c r="E46" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" t="s">
         <v>37</v>
+      </c>
+      <c r="C46" s="3">
+        <v>0.151</v>
+      </c>
+      <c r="D46" t="s">
+        <v>24</v>
+      </c>
+      <c r="E46" s="4">
+        <v>44208</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>8</v>
-      </c>
-      <c r="B47" s="3">
-        <v>0.13200000000000001</v>
-      </c>
-      <c r="C47" t="s">
-        <v>26</v>
-      </c>
-      <c r="D47" s="4">
-        <v>44287</v>
-      </c>
-      <c r="E47" t="s">
-        <v>37</v>
+        <v>9</v>
+      </c>
+      <c r="B47" t="s">
+        <v>40</v>
+      </c>
+      <c r="C47" s="3">
+        <v>0.114</v>
+      </c>
+      <c r="D47" t="s">
+        <v>24</v>
+      </c>
+      <c r="E47" s="4">
+        <v>44208</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>9</v>
-      </c>
-      <c r="B48" s="3">
-        <v>0.13200000000000001</v>
-      </c>
-      <c r="C48" t="s">
-        <v>26</v>
-      </c>
-      <c r="D48" s="4">
-        <v>44287</v>
-      </c>
-      <c r="E48" t="s">
-        <v>37</v>
+        <v>13</v>
+      </c>
+      <c r="B48" t="s">
+        <v>38</v>
+      </c>
+      <c r="C48" s="3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D48" t="s">
+        <v>24</v>
+      </c>
+      <c r="E48" s="4">
+        <v>44208</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>13</v>
-      </c>
-      <c r="B49" s="3">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="C49" t="s">
-        <v>26</v>
-      </c>
-      <c r="D49" s="4">
-        <v>44287</v>
-      </c>
-      <c r="E49" t="s">
-        <v>37</v>
+        <v>10</v>
+      </c>
+      <c r="B49" t="s">
+        <v>38</v>
+      </c>
+      <c r="C49" s="3">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="D49" t="s">
+        <v>24</v>
+      </c>
+      <c r="E49" s="4">
+        <v>44208</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>10</v>
-      </c>
-      <c r="B50" s="3">
-        <v>7.3999999999999996E-2</v>
-      </c>
-      <c r="C50" t="s">
-        <v>26</v>
-      </c>
-      <c r="D50" s="4">
-        <v>44287</v>
-      </c>
-      <c r="E50" t="s">
-        <v>37</v>
+        <v>11</v>
+      </c>
+      <c r="B50" t="s">
+        <v>39</v>
+      </c>
+      <c r="C50" s="3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D50" t="s">
+        <v>24</v>
+      </c>
+      <c r="E50" s="4">
+        <v>44208</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>11</v>
-      </c>
-      <c r="B51" s="3">
-        <v>0.02</v>
-      </c>
-      <c r="C51" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51" t="s">
+        <v>37</v>
+      </c>
+      <c r="C51" s="3">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="D51" t="s">
+        <v>24</v>
+      </c>
+      <c r="E51" s="4">
+        <v>44208</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B52" t="s">
+        <v>39</v>
+      </c>
+      <c r="C52" s="3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D52" t="s">
         <v>26</v>
       </c>
-      <c r="D51" s="4">
-        <v>44287</v>
-      </c>
-      <c r="E51" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>14</v>
-      </c>
-      <c r="B52" s="3">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="C52" t="s">
-        <v>26</v>
-      </c>
-      <c r="D52" s="4">
-        <v>44287</v>
-      </c>
-      <c r="E52" t="s">
-        <v>37</v>
+      <c r="E52" s="4">
+        <v>44257</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B53" s="3">
-        <v>2.3E-2</v>
-      </c>
-      <c r="C53" t="s">
-        <v>24</v>
-      </c>
-      <c r="D53" s="4">
-        <v>44317</v>
-      </c>
-      <c r="E53" t="s">
-        <v>49</v>
+      <c r="B53" t="s">
+        <v>38</v>
+      </c>
+      <c r="C53" s="3">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="D53" t="s">
+        <v>26</v>
+      </c>
+      <c r="E53" s="4">
+        <v>44257</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B54" s="3">
-        <v>9.4E-2</v>
-      </c>
-      <c r="C54" t="s">
-        <v>24</v>
-      </c>
-      <c r="D54" s="4">
-        <v>44317</v>
-      </c>
-      <c r="E54" t="s">
-        <v>49</v>
+      <c r="B54" t="s">
+        <v>39</v>
+      </c>
+      <c r="C54" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="D54" t="s">
+        <v>26</v>
+      </c>
+      <c r="E54" s="4">
+        <v>44257</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>3</v>
       </c>
-      <c r="B55" s="3">
-        <v>5.0999999999999997E-2</v>
-      </c>
-      <c r="C55" t="s">
-        <v>24</v>
-      </c>
-      <c r="D55" s="4">
-        <v>44317</v>
-      </c>
-      <c r="E55" t="s">
-        <v>49</v>
+      <c r="B55" t="s">
+        <v>40</v>
+      </c>
+      <c r="C55" s="3">
+        <v>4.7E-2</v>
+      </c>
+      <c r="D55" t="s">
+        <v>26</v>
+      </c>
+      <c r="E55" s="4">
+        <v>44257</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>4</v>
       </c>
-      <c r="B56" s="3">
-        <v>0.13200000000000001</v>
-      </c>
-      <c r="C56" t="s">
-        <v>24</v>
-      </c>
-      <c r="D56" s="4">
-        <v>44317</v>
-      </c>
-      <c r="E56" t="s">
-        <v>49</v>
+      <c r="B56" t="s">
+        <v>37</v>
+      </c>
+      <c r="C56" s="3">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="D56" t="s">
+        <v>26</v>
+      </c>
+      <c r="E56" s="4">
+        <v>44257</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>12</v>
       </c>
-      <c r="B57" s="3">
-        <v>7.9000000000000001E-2</v>
-      </c>
-      <c r="C57" t="s">
-        <v>24</v>
-      </c>
-      <c r="D57" s="4">
-        <v>44317</v>
-      </c>
-      <c r="E57" t="s">
-        <v>49</v>
+      <c r="B57" t="s">
+        <v>40</v>
+      </c>
+      <c r="C57" s="3">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="D57" t="s">
+        <v>26</v>
+      </c>
+      <c r="E57" s="4">
+        <v>44257</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>5</v>
       </c>
-      <c r="B58" s="3">
-        <v>8.6999999999999994E-2</v>
-      </c>
-      <c r="C58" t="s">
-        <v>24</v>
-      </c>
-      <c r="D58" s="4">
-        <v>44317</v>
-      </c>
-      <c r="E58" t="s">
-        <v>49</v>
+      <c r="B58" t="s">
+        <v>39</v>
+      </c>
+      <c r="C58" s="3">
+        <v>0.111</v>
+      </c>
+      <c r="D58" t="s">
+        <v>26</v>
+      </c>
+      <c r="E58" s="4">
+        <v>44257</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>6</v>
       </c>
-      <c r="B59" s="3">
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="C59" t="s">
-        <v>24</v>
-      </c>
-      <c r="D59" s="4">
-        <v>44317</v>
-      </c>
-      <c r="E59" t="s">
-        <v>49</v>
+      <c r="B59" t="s">
+        <v>37</v>
+      </c>
+      <c r="C59" s="3">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D59" t="s">
+        <v>26</v>
+      </c>
+      <c r="E59" s="4">
+        <v>44257</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>7</v>
       </c>
-      <c r="B60" s="3">
-        <v>9.1999999999999998E-2</v>
-      </c>
-      <c r="C60" t="s">
-        <v>24</v>
-      </c>
-      <c r="D60" s="4">
-        <v>44317</v>
-      </c>
-      <c r="E60" t="s">
-        <v>49</v>
+      <c r="B60" t="s">
+        <v>37</v>
+      </c>
+      <c r="C60" s="3">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="D60" t="s">
+        <v>26</v>
+      </c>
+      <c r="E60" s="4">
+        <v>44257</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>8</v>
       </c>
-      <c r="B61" s="3">
-        <v>0.151</v>
-      </c>
-      <c r="C61" t="s">
-        <v>24</v>
-      </c>
-      <c r="D61" s="4">
-        <v>44317</v>
-      </c>
-      <c r="E61" t="s">
-        <v>49</v>
+      <c r="B61" t="s">
+        <v>37</v>
+      </c>
+      <c r="C61" s="3">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="D61" t="s">
+        <v>26</v>
+      </c>
+      <c r="E61" s="4">
+        <v>44257</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>9</v>
       </c>
-      <c r="B62" s="3">
-        <v>0.114</v>
-      </c>
-      <c r="C62" t="s">
-        <v>24</v>
-      </c>
-      <c r="D62" s="4">
-        <v>44317</v>
-      </c>
-      <c r="E62" t="s">
-        <v>49</v>
+      <c r="B62" t="s">
+        <v>40</v>
+      </c>
+      <c r="C62" s="3">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="D62" t="s">
+        <v>26</v>
+      </c>
+      <c r="E62" s="4">
+        <v>44257</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>13</v>
       </c>
-      <c r="B63" s="3">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="C63" t="s">
-        <v>24</v>
-      </c>
-      <c r="D63" s="4">
-        <v>44317</v>
-      </c>
-      <c r="E63" t="s">
-        <v>49</v>
+      <c r="B63" t="s">
+        <v>38</v>
+      </c>
+      <c r="C63" s="3">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="D63" t="s">
+        <v>26</v>
+      </c>
+      <c r="E63" s="4">
+        <v>44257</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>10</v>
       </c>
-      <c r="B64" s="3">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="C64" t="s">
-        <v>24</v>
-      </c>
-      <c r="D64" s="4">
-        <v>44317</v>
-      </c>
-      <c r="E64" t="s">
-        <v>49</v>
+      <c r="B64" t="s">
+        <v>38</v>
+      </c>
+      <c r="C64" s="3">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="D64" t="s">
+        <v>26</v>
+      </c>
+      <c r="E64" s="4">
+        <v>44257</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>11</v>
       </c>
-      <c r="B65" s="3">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="C65" t="s">
-        <v>24</v>
-      </c>
-      <c r="D65" s="4">
-        <v>44317</v>
-      </c>
-      <c r="E65" t="s">
-        <v>49</v>
+      <c r="B65" t="s">
+        <v>39</v>
+      </c>
+      <c r="C65" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="D65" t="s">
+        <v>26</v>
+      </c>
+      <c r="E65" s="4">
+        <v>44257</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>14</v>
       </c>
-      <c r="B66" s="3">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="C66" t="s">
-        <v>24</v>
-      </c>
-      <c r="D66" s="4">
-        <v>44317</v>
-      </c>
-      <c r="E66" t="s">
-        <v>49</v>
+      <c r="B66" t="s">
+        <v>37</v>
+      </c>
+      <c r="C66" s="3">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D66" t="s">
+        <v>26</v>
+      </c>
+      <c r="E66" s="4">
+        <v>44257</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B67" s="3">
+      <c r="B67" t="s">
+        <v>39</v>
+      </c>
+      <c r="C67" s="3">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
         <v>27</v>
       </c>
-      <c r="D67" s="4">
-        <v>44348</v>
-      </c>
-      <c r="E67" t="s">
-        <v>41</v>
+      <c r="E67" s="4">
+        <v>44313</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B68" s="3">
+      <c r="B68" t="s">
+        <v>38</v>
+      </c>
+      <c r="C68" s="3">
         <v>1.9E-2</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
         <v>27</v>
       </c>
-      <c r="D68" s="4">
-        <v>44348</v>
-      </c>
-      <c r="E68" t="s">
-        <v>41</v>
+      <c r="E68" s="4">
+        <v>44313</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B69" s="3">
+      <c r="B69" t="s">
+        <v>39</v>
+      </c>
+      <c r="C69" s="3">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
         <v>27</v>
       </c>
-      <c r="D69" s="4">
-        <v>44348</v>
-      </c>
-      <c r="E69" t="s">
-        <v>41</v>
+      <c r="E69" s="4">
+        <v>44313</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>3</v>
       </c>
-      <c r="B70" s="3">
+      <c r="B70" t="s">
+        <v>40</v>
+      </c>
+      <c r="C70" s="3">
         <v>3.9E-2</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
         <v>27</v>
       </c>
-      <c r="D70" s="4">
-        <v>44348</v>
-      </c>
-      <c r="E70" t="s">
-        <v>41</v>
+      <c r="E70" s="4">
+        <v>44313</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>4</v>
       </c>
-      <c r="B71" s="3">
+      <c r="B71" t="s">
+        <v>37</v>
+      </c>
+      <c r="C71" s="3">
         <v>0.159</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
         <v>27</v>
       </c>
-      <c r="D71" s="4">
-        <v>44348</v>
-      </c>
-      <c r="E71" t="s">
-        <v>41</v>
+      <c r="E71" s="4">
+        <v>44313</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>12</v>
       </c>
-      <c r="B72" s="3">
+      <c r="B72" t="s">
+        <v>40</v>
+      </c>
+      <c r="C72" s="3">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D72" t="s">
         <v>27</v>
       </c>
-      <c r="D72" s="4">
-        <v>44348</v>
-      </c>
-      <c r="E72" t="s">
-        <v>41</v>
+      <c r="E72" s="4">
+        <v>44313</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>5</v>
       </c>
-      <c r="B73" s="3">
+      <c r="B73" t="s">
+        <v>39</v>
+      </c>
+      <c r="C73" s="3">
         <v>0.10199999999999999</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
         <v>27</v>
       </c>
-      <c r="D73" s="4">
-        <v>44348</v>
-      </c>
-      <c r="E73" t="s">
-        <v>41</v>
+      <c r="E73" s="4">
+        <v>44313</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>6</v>
       </c>
-      <c r="B74" s="3">
+      <c r="B74" t="s">
+        <v>37</v>
+      </c>
+      <c r="C74" s="3">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
         <v>27</v>
       </c>
-      <c r="D74" s="4">
-        <v>44348</v>
-      </c>
-      <c r="E74" t="s">
-        <v>41</v>
+      <c r="E74" s="4">
+        <v>44313</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>7</v>
       </c>
-      <c r="B75" s="3">
+      <c r="B75" t="s">
+        <v>37</v>
+      </c>
+      <c r="C75" s="3">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
         <v>27</v>
       </c>
-      <c r="D75" s="4">
-        <v>44348</v>
-      </c>
-      <c r="E75" t="s">
-        <v>41</v>
+      <c r="E75" s="4">
+        <v>44313</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>8</v>
       </c>
-      <c r="B76" s="3">
+      <c r="B76" t="s">
+        <v>37</v>
+      </c>
+      <c r="C76" s="3">
         <v>0.13700000000000001</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
         <v>27</v>
       </c>
-      <c r="D76" s="4">
-        <v>44348</v>
-      </c>
-      <c r="E76" t="s">
-        <v>41</v>
+      <c r="E76" s="4">
+        <v>44313</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>9</v>
       </c>
-      <c r="B77" s="3">
+      <c r="B77" t="s">
+        <v>40</v>
+      </c>
+      <c r="C77" s="3">
         <v>0.13900000000000001</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D77" t="s">
         <v>27</v>
       </c>
-      <c r="D77" s="4">
-        <v>44348</v>
-      </c>
-      <c r="E77" t="s">
-        <v>41</v>
+      <c r="E77" s="4">
+        <v>44313</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>13</v>
       </c>
-      <c r="B78" s="3">
+      <c r="B78" t="s">
+        <v>38</v>
+      </c>
+      <c r="C78" s="3">
         <v>0.03</v>
       </c>
-      <c r="C78" t="s">
+      <c r="D78" t="s">
         <v>27</v>
       </c>
-      <c r="D78" s="4">
-        <v>44348</v>
-      </c>
-      <c r="E78" t="s">
-        <v>41</v>
+      <c r="E78" s="4">
+        <v>44313</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>10</v>
       </c>
-      <c r="B79" s="3">
+      <c r="B79" t="s">
+        <v>38</v>
+      </c>
+      <c r="C79" s="3">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="C79" t="s">
+      <c r="D79" t="s">
         <v>27</v>
       </c>
-      <c r="D79" s="4">
-        <v>44348</v>
-      </c>
-      <c r="E79" t="s">
-        <v>41</v>
+      <c r="E79" s="4">
+        <v>44313</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>11</v>
       </c>
-      <c r="B80" s="3">
+      <c r="B80" t="s">
+        <v>39</v>
+      </c>
+      <c r="C80" s="3">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="C80" t="s">
+      <c r="D80" t="s">
         <v>27</v>
       </c>
-      <c r="D80" s="4">
-        <v>44348</v>
-      </c>
-      <c r="E80" t="s">
-        <v>41</v>
+      <c r="E80" s="4">
+        <v>44313</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>14</v>
       </c>
-      <c r="B81" s="3">
+      <c r="B81" t="s">
+        <v>37</v>
+      </c>
+      <c r="C81" s="3">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="C81" t="s">
+      <c r="D81" t="s">
         <v>27</v>
       </c>
-      <c r="D81" s="4">
-        <v>44348</v>
-      </c>
-      <c r="E81" t="s">
-        <v>41</v>
+      <c r="E81" s="4">
+        <v>44313</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B82" s="3">
+      <c r="B82" t="s">
+        <v>39</v>
+      </c>
+      <c r="C82" s="3">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="C82" t="s">
+      <c r="D82" t="s">
         <v>28</v>
       </c>
-      <c r="D82" s="4">
-        <v>44378</v>
-      </c>
-      <c r="E82" t="s">
-        <v>38</v>
+      <c r="E82" s="4">
+        <v>44369</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B83" s="3">
+      <c r="B83" t="s">
+        <v>38</v>
+      </c>
+      <c r="C83" s="3">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
         <v>28</v>
       </c>
-      <c r="D83" s="4">
-        <v>44378</v>
-      </c>
-      <c r="E83" t="s">
-        <v>38</v>
+      <c r="E83" s="4">
+        <v>44369</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B84" s="3">
+      <c r="B84" t="s">
+        <v>39</v>
+      </c>
+      <c r="C84" s="3">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="C84" t="s">
+      <c r="D84" t="s">
         <v>28</v>
       </c>
-      <c r="D84" s="4">
-        <v>44378</v>
-      </c>
-      <c r="E84" t="s">
-        <v>38</v>
+      <c r="E84" s="4">
+        <v>44369</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>3</v>
       </c>
-      <c r="B85" s="3">
+      <c r="B85" t="s">
+        <v>40</v>
+      </c>
+      <c r="C85" s="3">
         <v>0.04</v>
       </c>
-      <c r="C85" t="s">
+      <c r="D85" t="s">
         <v>28</v>
       </c>
-      <c r="D85" s="4">
-        <v>44378</v>
-      </c>
-      <c r="E85" t="s">
-        <v>38</v>
+      <c r="E85" s="4">
+        <v>44369</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>4</v>
       </c>
-      <c r="B86" s="3">
+      <c r="B86" t="s">
+        <v>37</v>
+      </c>
+      <c r="C86" s="3">
         <v>0.159</v>
       </c>
-      <c r="C86" t="s">
+      <c r="D86" t="s">
         <v>28</v>
       </c>
-      <c r="D86" s="4">
-        <v>44378</v>
-      </c>
-      <c r="E86" t="s">
-        <v>38</v>
+      <c r="E86" s="4">
+        <v>44369</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>16</v>
       </c>
-      <c r="B87" s="3">
+      <c r="B87" t="s">
+        <v>38</v>
+      </c>
+      <c r="C87" s="3">
         <v>3.1E-2</v>
       </c>
-      <c r="C87" t="s">
+      <c r="D87" t="s">
         <v>28</v>
       </c>
-      <c r="D87" s="4">
-        <v>44378</v>
-      </c>
-      <c r="E87" t="s">
-        <v>38</v>
+      <c r="E87" s="4">
+        <v>44369</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>12</v>
       </c>
-      <c r="B88" s="3">
+      <c r="B88" t="s">
+        <v>40</v>
+      </c>
+      <c r="C88" s="3">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="C88" t="s">
+      <c r="D88" t="s">
         <v>28</v>
       </c>
-      <c r="D88" s="4">
-        <v>44378</v>
-      </c>
-      <c r="E88" t="s">
-        <v>38</v>
+      <c r="E88" s="4">
+        <v>44369</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>5</v>
       </c>
-      <c r="B89" s="3">
+      <c r="B89" t="s">
+        <v>39</v>
+      </c>
+      <c r="C89" s="3">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="C89" t="s">
+      <c r="D89" t="s">
         <v>28</v>
       </c>
-      <c r="D89" s="4">
-        <v>44378</v>
-      </c>
-      <c r="E89" t="s">
-        <v>38</v>
+      <c r="E89" s="4">
+        <v>44369</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>6</v>
       </c>
-      <c r="B90" s="3">
+      <c r="B90" t="s">
+        <v>37</v>
+      </c>
+      <c r="C90" s="3">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="C90" t="s">
+      <c r="D90" t="s">
         <v>28</v>
       </c>
-      <c r="D90" s="4">
-        <v>44378</v>
-      </c>
-      <c r="E90" t="s">
-        <v>38</v>
+      <c r="E90" s="4">
+        <v>44369</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>7</v>
       </c>
-      <c r="B91" s="3">
+      <c r="B91" t="s">
+        <v>37</v>
+      </c>
+      <c r="C91" s="3">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="C91" t="s">
+      <c r="D91" t="s">
         <v>28</v>
       </c>
-      <c r="D91" s="4">
-        <v>44378</v>
-      </c>
-      <c r="E91" t="s">
-        <v>38</v>
+      <c r="E91" s="4">
+        <v>44369</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>8</v>
       </c>
-      <c r="B92" s="3">
+      <c r="B92" t="s">
+        <v>37</v>
+      </c>
+      <c r="C92" s="3">
         <v>0.14299999999999999</v>
       </c>
-      <c r="C92" t="s">
+      <c r="D92" t="s">
         <v>28</v>
       </c>
-      <c r="D92" s="4">
-        <v>44378</v>
-      </c>
-      <c r="E92" t="s">
-        <v>38</v>
+      <c r="E92" s="4">
+        <v>44369</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>9</v>
       </c>
-      <c r="B93" s="3">
+      <c r="B93" t="s">
+        <v>40</v>
+      </c>
+      <c r="C93" s="3">
         <v>0.13200000000000001</v>
       </c>
-      <c r="C93" t="s">
+      <c r="D93" t="s">
         <v>28</v>
       </c>
-      <c r="D93" s="4">
-        <v>44378</v>
-      </c>
-      <c r="E93" t="s">
-        <v>38</v>
+      <c r="E93" s="4">
+        <v>44369</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>13</v>
       </c>
-      <c r="B94" s="3">
+      <c r="B94" t="s">
+        <v>38</v>
+      </c>
+      <c r="C94" s="3">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="C94" t="s">
+      <c r="D94" t="s">
         <v>28</v>
       </c>
-      <c r="D94" s="4">
-        <v>44378</v>
-      </c>
-      <c r="E94" t="s">
-        <v>38</v>
+      <c r="E94" s="4">
+        <v>44369</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>10</v>
       </c>
-      <c r="B95" s="3">
+      <c r="B95" t="s">
+        <v>38</v>
+      </c>
+      <c r="C95" s="3">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="C95" t="s">
+      <c r="D95" t="s">
         <v>28</v>
       </c>
-      <c r="D95" s="4">
-        <v>44378</v>
-      </c>
-      <c r="E95" t="s">
-        <v>38</v>
+      <c r="E95" s="4">
+        <v>44369</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>11</v>
       </c>
-      <c r="B96" s="3">
+      <c r="B96" t="s">
+        <v>39</v>
+      </c>
+      <c r="C96" s="3">
         <v>0.05</v>
       </c>
-      <c r="C96" t="s">
+      <c r="D96" t="s">
         <v>28</v>
       </c>
-      <c r="D96" s="4">
-        <v>44378</v>
-      </c>
-      <c r="E96" t="s">
-        <v>38</v>
+      <c r="E96" s="4">
+        <v>44369</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>14</v>
       </c>
-      <c r="B97" s="3">
+      <c r="B97" t="s">
+        <v>37</v>
+      </c>
+      <c r="C97" s="3">
         <v>0.01</v>
       </c>
-      <c r="C97" t="s">
+      <c r="D97" t="s">
         <v>28</v>
       </c>
-      <c r="D97" s="4">
-        <v>44378</v>
-      </c>
-      <c r="E97" t="s">
-        <v>38</v>
+      <c r="E97" s="4">
+        <v>44369</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B98" s="3">
+      <c r="B98" t="s">
+        <v>39</v>
+      </c>
+      <c r="C98" s="3">
         <v>2.7E-2</v>
       </c>
-      <c r="C98" t="s">
+      <c r="D98" t="s">
         <v>29</v>
       </c>
-      <c r="D98" s="4">
-        <v>44409</v>
-      </c>
-      <c r="E98" t="s">
-        <v>39</v>
+      <c r="E98" s="4">
+        <v>44447</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B99" s="3">
+      <c r="B99" t="s">
+        <v>38</v>
+      </c>
+      <c r="C99" s="3">
         <v>1.6E-2</v>
       </c>
-      <c r="C99" t="s">
+      <c r="D99" t="s">
         <v>29</v>
       </c>
-      <c r="D99" s="4">
-        <v>44409</v>
-      </c>
-      <c r="E99" t="s">
-        <v>39</v>
+      <c r="E99" s="4">
+        <v>44447</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B100" s="3">
+      <c r="B100" t="s">
+        <v>39</v>
+      </c>
+      <c r="C100" s="3">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="C100" t="s">
+      <c r="D100" t="s">
         <v>29</v>
       </c>
-      <c r="D100" s="4">
-        <v>44409</v>
-      </c>
-      <c r="E100" t="s">
-        <v>39</v>
+      <c r="E100" s="4">
+        <v>44447</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>3</v>
       </c>
-      <c r="B101" s="3">
+      <c r="B101" t="s">
+        <v>40</v>
+      </c>
+      <c r="C101" s="3">
         <v>3.9E-2</v>
       </c>
-      <c r="C101" t="s">
+      <c r="D101" t="s">
         <v>29</v>
       </c>
-      <c r="D101" s="4">
-        <v>44409</v>
-      </c>
-      <c r="E101" t="s">
-        <v>39</v>
+      <c r="E101" s="4">
+        <v>44447</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>4</v>
       </c>
-      <c r="B102" s="3">
+      <c r="B102" t="s">
+        <v>37</v>
+      </c>
+      <c r="C102" s="3">
         <v>0.16200000000000001</v>
       </c>
-      <c r="C102" t="s">
+      <c r="D102" t="s">
         <v>29</v>
       </c>
-      <c r="D102" s="4">
-        <v>44409</v>
-      </c>
-      <c r="E102" t="s">
-        <v>39</v>
+      <c r="E102" s="4">
+        <v>44447</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>16</v>
       </c>
-      <c r="B103" s="3">
+      <c r="B103" t="s">
+        <v>38</v>
+      </c>
+      <c r="C103" s="3">
         <v>1.4E-2</v>
       </c>
-      <c r="C103" t="s">
+      <c r="D103" t="s">
         <v>29</v>
       </c>
-      <c r="D103" s="4">
-        <v>44409</v>
-      </c>
-      <c r="E103" t="s">
-        <v>39</v>
+      <c r="E103" s="4">
+        <v>44447</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>12</v>
       </c>
-      <c r="B104" s="3">
+      <c r="B104" t="s">
+        <v>40</v>
+      </c>
+      <c r="C104" s="3">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="C104" t="s">
+      <c r="D104" t="s">
         <v>29</v>
       </c>
-      <c r="D104" s="4">
-        <v>44409</v>
-      </c>
-      <c r="E104" t="s">
-        <v>39</v>
+      <c r="E104" s="4">
+        <v>44447</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>5</v>
       </c>
-      <c r="B105" s="3">
+      <c r="B105" t="s">
+        <v>39</v>
+      </c>
+      <c r="C105" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C105" t="s">
+      <c r="D105" t="s">
         <v>29</v>
       </c>
-      <c r="D105" s="4">
-        <v>44409</v>
-      </c>
-      <c r="E105" t="s">
-        <v>39</v>
+      <c r="E105" s="4">
+        <v>44447</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>6</v>
       </c>
-      <c r="B106" s="3">
+      <c r="B106" t="s">
+        <v>37</v>
+      </c>
+      <c r="C106" s="3">
         <v>0.02</v>
       </c>
-      <c r="C106" t="s">
+      <c r="D106" t="s">
         <v>29</v>
       </c>
-      <c r="D106" s="4">
-        <v>44409</v>
-      </c>
-      <c r="E106" t="s">
-        <v>39</v>
+      <c r="E106" s="4">
+        <v>44447</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>7</v>
       </c>
-      <c r="B107" s="3">
+      <c r="B107" t="s">
+        <v>37</v>
+      </c>
+      <c r="C107" s="3">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="C107" t="s">
+      <c r="D107" t="s">
         <v>29</v>
       </c>
-      <c r="D107" s="4">
-        <v>44409</v>
-      </c>
-      <c r="E107" t="s">
-        <v>39</v>
+      <c r="E107" s="4">
+        <v>44447</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>8</v>
       </c>
-      <c r="B108" s="3">
+      <c r="B108" t="s">
+        <v>37</v>
+      </c>
+      <c r="C108" s="3">
         <v>0.154</v>
       </c>
-      <c r="C108" t="s">
+      <c r="D108" t="s">
         <v>29</v>
       </c>
-      <c r="D108" s="4">
-        <v>44409</v>
-      </c>
-      <c r="E108" t="s">
-        <v>39</v>
+      <c r="E108" s="4">
+        <v>44447</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>9</v>
       </c>
-      <c r="B109" s="3">
+      <c r="B109" t="s">
+        <v>40</v>
+      </c>
+      <c r="C109" s="3">
         <v>0.13</v>
       </c>
-      <c r="C109" t="s">
+      <c r="D109" t="s">
         <v>29</v>
       </c>
-      <c r="D109" s="4">
-        <v>44409</v>
-      </c>
-      <c r="E109" t="s">
-        <v>39</v>
+      <c r="E109" s="4">
+        <v>44447</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>13</v>
       </c>
-      <c r="B110" s="3">
+      <c r="B110" t="s">
+        <v>38</v>
+      </c>
+      <c r="C110" s="3">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="C110" t="s">
+      <c r="D110" t="s">
         <v>29</v>
       </c>
-      <c r="D110" s="4">
-        <v>44409</v>
-      </c>
-      <c r="E110" t="s">
-        <v>39</v>
+      <c r="E110" s="4">
+        <v>44447</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>10</v>
       </c>
-      <c r="B111" s="3">
+      <c r="B111" t="s">
+        <v>38</v>
+      </c>
+      <c r="C111" s="3">
         <v>8.1000000000000003E-2</v>
       </c>
-      <c r="C111" t="s">
+      <c r="D111" t="s">
         <v>29</v>
       </c>
-      <c r="D111" s="4">
-        <v>44409</v>
-      </c>
-      <c r="E111" t="s">
-        <v>39</v>
+      <c r="E111" s="4">
+        <v>44447</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>11</v>
       </c>
-      <c r="B112" s="3">
+      <c r="B112" t="s">
+        <v>39</v>
+      </c>
+      <c r="C112" s="3">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="C112" t="s">
+      <c r="D112" t="s">
         <v>29</v>
       </c>
-      <c r="D112" s="4">
-        <v>44409</v>
-      </c>
-      <c r="E112" t="s">
-        <v>39</v>
+      <c r="E112" s="4">
+        <v>44447</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>14</v>
       </c>
-      <c r="B113" s="3">
+      <c r="B113" t="s">
+        <v>37</v>
+      </c>
+      <c r="C113" s="3">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="C113" t="s">
+      <c r="D113" t="s">
         <v>29</v>
       </c>
-      <c r="D113" s="4">
-        <v>44409</v>
-      </c>
-      <c r="E113" t="s">
-        <v>39</v>
+      <c r="E113" s="4">
+        <v>44447</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B114" s="3">
+      <c r="B114" t="s">
+        <v>39</v>
+      </c>
+      <c r="C114" s="3">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="C114" t="s">
+      <c r="D114" t="s">
         <v>30</v>
       </c>
-      <c r="D114" s="4">
-        <v>44440</v>
-      </c>
-      <c r="E114" t="s">
-        <v>40</v>
+      <c r="E114" s="4">
+        <v>44502</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B115" s="3">
+      <c r="B115" t="s">
+        <v>38</v>
+      </c>
+      <c r="C115" s="3">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="C115" t="s">
+      <c r="D115" t="s">
         <v>30</v>
       </c>
-      <c r="D115" s="4">
-        <v>44440</v>
-      </c>
-      <c r="E115" t="s">
-        <v>40</v>
+      <c r="E115" s="4">
+        <v>44502</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B116" s="3">
+      <c r="B116" t="s">
+        <v>39</v>
+      </c>
+      <c r="C116" s="3">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="C116" t="s">
+      <c r="D116" t="s">
         <v>30</v>
       </c>
-      <c r="D116" s="4">
-        <v>44440</v>
-      </c>
-      <c r="E116" t="s">
-        <v>40</v>
+      <c r="E116" s="4">
+        <v>44502</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>17</v>
       </c>
-      <c r="B117" s="3">
+      <c r="B117" t="s">
+        <v>40</v>
+      </c>
+      <c r="C117" s="3">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="C117" t="s">
+      <c r="D117" t="s">
         <v>30</v>
       </c>
-      <c r="D117" s="4">
-        <v>44440</v>
-      </c>
-      <c r="E117" t="s">
-        <v>40</v>
+      <c r="E117" s="4">
+        <v>44502</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>3</v>
       </c>
-      <c r="B118" s="3">
+      <c r="B118" t="s">
+        <v>40</v>
+      </c>
+      <c r="C118" s="3">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="C118" t="s">
+      <c r="D118" t="s">
         <v>30</v>
       </c>
-      <c r="D118" s="4">
-        <v>44440</v>
-      </c>
-      <c r="E118" t="s">
-        <v>40</v>
+      <c r="E118" s="4">
+        <v>44502</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>4</v>
       </c>
-      <c r="B119" s="3">
+      <c r="B119" t="s">
+        <v>37</v>
+      </c>
+      <c r="C119" s="3">
         <v>0.16200000000000001</v>
       </c>
-      <c r="C119" t="s">
+      <c r="D119" t="s">
         <v>30</v>
       </c>
-      <c r="D119" s="4">
-        <v>44440</v>
-      </c>
-      <c r="E119" t="s">
-        <v>40</v>
+      <c r="E119" s="4">
+        <v>44502</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>16</v>
       </c>
-      <c r="B120" s="3">
+      <c r="B120" t="s">
+        <v>38</v>
+      </c>
+      <c r="C120" s="3">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="C120" t="s">
+      <c r="D120" t="s">
         <v>30</v>
       </c>
-      <c r="D120" s="4">
-        <v>44440</v>
-      </c>
-      <c r="E120" t="s">
-        <v>40</v>
+      <c r="E120" s="4">
+        <v>44502</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>12</v>
       </c>
-      <c r="B121" s="3">
+      <c r="B121" t="s">
+        <v>40</v>
+      </c>
+      <c r="C121" s="3">
         <v>0.05</v>
       </c>
-      <c r="C121" t="s">
+      <c r="D121" t="s">
         <v>30</v>
       </c>
-      <c r="D121" s="4">
-        <v>44440</v>
-      </c>
-      <c r="E121" t="s">
-        <v>40</v>
+      <c r="E121" s="4">
+        <v>44502</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>5</v>
       </c>
-      <c r="B122" s="3">
+      <c r="B122" t="s">
+        <v>39</v>
+      </c>
+      <c r="C122" s="3">
         <v>5.5E-2</v>
       </c>
-      <c r="C122" t="s">
+      <c r="D122" t="s">
         <v>30</v>
       </c>
-      <c r="D122" s="4">
-        <v>44440</v>
-      </c>
-      <c r="E122" t="s">
-        <v>40</v>
+      <c r="E122" s="4">
+        <v>44502</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>6</v>
       </c>
-      <c r="B123" s="3">
+      <c r="B123" t="s">
+        <v>37</v>
+      </c>
+      <c r="C123" s="3">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="C123" t="s">
+      <c r="D123" t="s">
         <v>30</v>
       </c>
-      <c r="D123" s="4">
-        <v>44440</v>
-      </c>
-      <c r="E123" t="s">
-        <v>40</v>
+      <c r="E123" s="4">
+        <v>44502</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>7</v>
       </c>
-      <c r="B124" s="3">
+      <c r="B124" t="s">
+        <v>37</v>
+      </c>
+      <c r="C124" s="3">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="C124" t="s">
+      <c r="D124" t="s">
         <v>30</v>
       </c>
-      <c r="D124" s="4">
-        <v>44440</v>
-      </c>
-      <c r="E124" t="s">
-        <v>40</v>
+      <c r="E124" s="4">
+        <v>44502</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>8</v>
       </c>
-      <c r="B125" s="3">
+      <c r="B125" t="s">
+        <v>37</v>
+      </c>
+      <c r="C125" s="3">
         <v>0.152</v>
       </c>
-      <c r="C125" t="s">
+      <c r="D125" t="s">
         <v>30</v>
       </c>
-      <c r="D125" s="4">
-        <v>44440</v>
-      </c>
-      <c r="E125" t="s">
-        <v>40</v>
+      <c r="E125" s="4">
+        <v>44502</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>9</v>
       </c>
-      <c r="B126" s="3">
+      <c r="B126" t="s">
+        <v>40</v>
+      </c>
+      <c r="C126" s="3">
         <v>0.12</v>
       </c>
-      <c r="C126" t="s">
+      <c r="D126" t="s">
         <v>30</v>
       </c>
-      <c r="D126" s="4">
-        <v>44440</v>
-      </c>
-      <c r="E126" t="s">
-        <v>40</v>
+      <c r="E126" s="4">
+        <v>44502</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>13</v>
       </c>
-      <c r="B127" s="3">
+      <c r="B127" t="s">
+        <v>38</v>
+      </c>
+      <c r="C127" s="3">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="C127" t="s">
+      <c r="D127" t="s">
         <v>30</v>
       </c>
-      <c r="D127" s="4">
-        <v>44440</v>
-      </c>
-      <c r="E127" t="s">
-        <v>40</v>
+      <c r="E127" s="4">
+        <v>44502</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>10</v>
       </c>
-      <c r="B128" s="3">
+      <c r="B128" t="s">
+        <v>38</v>
+      </c>
+      <c r="C128" s="3">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="C128" t="s">
+      <c r="D128" t="s">
         <v>30</v>
       </c>
-      <c r="D128" s="4">
-        <v>44440</v>
-      </c>
-      <c r="E128" t="s">
-        <v>40</v>
+      <c r="E128" s="4">
+        <v>44502</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>11</v>
       </c>
-      <c r="B129" s="3">
+      <c r="B129" t="s">
+        <v>39</v>
+      </c>
+      <c r="C129" s="3">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="C129" t="s">
+      <c r="D129" t="s">
         <v>30</v>
       </c>
-      <c r="D129" s="4">
-        <v>44440</v>
-      </c>
-      <c r="E129" t="s">
-        <v>40</v>
+      <c r="E129" s="4">
+        <v>44502</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>14</v>
       </c>
-      <c r="B130" s="3">
+      <c r="B130" t="s">
+        <v>37</v>
+      </c>
+      <c r="C130" s="3">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="C130" t="s">
+      <c r="D130" t="s">
         <v>30</v>
       </c>
-      <c r="D130" s="4">
-        <v>44440</v>
-      </c>
-      <c r="E130" t="s">
-        <v>40</v>
+      <c r="E130" s="4">
+        <v>44502</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B131" s="3">
+      <c r="B131" t="s">
+        <v>39</v>
+      </c>
+      <c r="C131" s="3">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="C131" t="s">
+      <c r="D131" t="s">
         <v>31</v>
       </c>
-      <c r="D131" s="4">
-        <v>44470</v>
-      </c>
-      <c r="E131" t="s">
-        <v>42</v>
+      <c r="E131" s="4">
+        <v>44572</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B132" s="3">
+      <c r="B132" t="s">
+        <v>38</v>
+      </c>
+      <c r="C132" s="3">
         <v>1.9E-2</v>
       </c>
-      <c r="C132" t="s">
+      <c r="D132" t="s">
         <v>31</v>
       </c>
-      <c r="D132" s="4">
-        <v>44470</v>
-      </c>
-      <c r="E132" t="s">
-        <v>42</v>
+      <c r="E132" s="4">
+        <v>44572</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B133" s="3">
+      <c r="B133" t="s">
+        <v>39</v>
+      </c>
+      <c r="C133" s="3">
         <v>0.03</v>
       </c>
-      <c r="C133" t="s">
+      <c r="D133" t="s">
         <v>31</v>
       </c>
-      <c r="D133" s="4">
-        <v>44470</v>
-      </c>
-      <c r="E133" t="s">
-        <v>42</v>
+      <c r="E133" s="4">
+        <v>44572</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>17</v>
       </c>
-      <c r="B134" s="3">
+      <c r="B134" t="s">
+        <v>40</v>
+      </c>
+      <c r="C134" s="3">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="C134" t="s">
+      <c r="D134" t="s">
         <v>31</v>
       </c>
-      <c r="D134" s="4">
-        <v>44470</v>
-      </c>
-      <c r="E134" t="s">
-        <v>42</v>
+      <c r="E134" s="4">
+        <v>44572</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>3</v>
       </c>
-      <c r="B135" s="3">
+      <c r="B135" t="s">
+        <v>40</v>
+      </c>
+      <c r="C135" s="3">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="C135" t="s">
+      <c r="D135" t="s">
         <v>31</v>
       </c>
-      <c r="D135" s="4">
-        <v>44470</v>
-      </c>
-      <c r="E135" t="s">
-        <v>42</v>
+      <c r="E135" s="4">
+        <v>44572</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>4</v>
       </c>
-      <c r="B136" s="3">
+      <c r="B136" t="s">
+        <v>37</v>
+      </c>
+      <c r="C136" s="3">
         <v>0.159</v>
       </c>
-      <c r="C136" t="s">
+      <c r="D136" t="s">
         <v>31</v>
       </c>
-      <c r="D136" s="4">
-        <v>44470</v>
-      </c>
-      <c r="E136" t="s">
-        <v>42</v>
+      <c r="E136" s="4">
+        <v>44572</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>16</v>
       </c>
-      <c r="B137" s="3">
+      <c r="B137" t="s">
+        <v>38</v>
+      </c>
+      <c r="C137" s="3">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="C137" t="s">
+      <c r="D137" t="s">
         <v>31</v>
       </c>
-      <c r="D137" s="4">
-        <v>44470</v>
-      </c>
-      <c r="E137" t="s">
-        <v>42</v>
+      <c r="E137" s="4">
+        <v>44572</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>12</v>
       </c>
-      <c r="B138" s="3">
+      <c r="B138" t="s">
+        <v>40</v>
+      </c>
+      <c r="C138" s="3">
         <v>0.04</v>
       </c>
-      <c r="C138" t="s">
+      <c r="D138" t="s">
         <v>31</v>
       </c>
-      <c r="D138" s="4">
-        <v>44470</v>
-      </c>
-      <c r="E138" t="s">
-        <v>42</v>
+      <c r="E138" s="4">
+        <v>44572</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>18</v>
       </c>
-      <c r="B139" s="3">
+      <c r="B139" t="s">
+        <v>37</v>
+      </c>
+      <c r="C139" s="3">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="C139" t="s">
+      <c r="D139" t="s">
         <v>31</v>
       </c>
-      <c r="D139" s="4">
-        <v>44470</v>
-      </c>
-      <c r="E139" t="s">
-        <v>42</v>
+      <c r="E139" s="4">
+        <v>44572</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>5</v>
       </c>
-      <c r="B140" s="3">
+      <c r="B140" t="s">
+        <v>39</v>
+      </c>
+      <c r="C140" s="3">
         <v>3.9E-2</v>
       </c>
-      <c r="C140" t="s">
+      <c r="D140" t="s">
         <v>31</v>
       </c>
-      <c r="D140" s="4">
-        <v>44470</v>
-      </c>
-      <c r="E140" t="s">
-        <v>42</v>
+      <c r="E140" s="4">
+        <v>44572</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>6</v>
       </c>
-      <c r="B141" s="3">
+      <c r="B141" t="s">
+        <v>37</v>
+      </c>
+      <c r="C141" s="3">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="C141" t="s">
+      <c r="D141" t="s">
         <v>31</v>
       </c>
-      <c r="D141" s="4">
-        <v>44470</v>
-      </c>
-      <c r="E141" t="s">
-        <v>42</v>
+      <c r="E141" s="4">
+        <v>44572</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>7</v>
       </c>
-      <c r="B142" s="3">
+      <c r="B142" t="s">
+        <v>37</v>
+      </c>
+      <c r="C142" s="3">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="C142" t="s">
+      <c r="D142" t="s">
         <v>31</v>
       </c>
-      <c r="D142" s="4">
-        <v>44470</v>
-      </c>
-      <c r="E142" t="s">
-        <v>42</v>
+      <c r="E142" s="4">
+        <v>44572</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>8</v>
       </c>
-      <c r="B143" s="3">
+      <c r="B143" t="s">
+        <v>37</v>
+      </c>
+      <c r="C143" s="3">
         <v>0.13</v>
       </c>
-      <c r="C143" t="s">
+      <c r="D143" t="s">
         <v>31</v>
       </c>
-      <c r="D143" s="4">
-        <v>44470</v>
-      </c>
-      <c r="E143" t="s">
-        <v>42</v>
+      <c r="E143" s="4">
+        <v>44572</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>9</v>
       </c>
-      <c r="B144" s="3">
+      <c r="B144" t="s">
+        <v>40</v>
+      </c>
+      <c r="C144" s="3">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="C144" t="s">
+      <c r="D144" t="s">
         <v>31</v>
       </c>
-      <c r="D144" s="4">
-        <v>44470</v>
-      </c>
-      <c r="E144" t="s">
-        <v>42</v>
+      <c r="E144" s="4">
+        <v>44572</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>13</v>
       </c>
-      <c r="B145" s="3">
+      <c r="B145" t="s">
+        <v>38</v>
+      </c>
+      <c r="C145" s="3">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="C145" t="s">
+      <c r="D145" t="s">
         <v>31</v>
       </c>
-      <c r="D145" s="4">
-        <v>44470</v>
-      </c>
-      <c r="E145" t="s">
-        <v>42</v>
+      <c r="E145" s="4">
+        <v>44572</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>10</v>
       </c>
-      <c r="B146" s="3">
+      <c r="B146" t="s">
+        <v>38</v>
+      </c>
+      <c r="C146" s="3">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="C146" t="s">
+      <c r="D146" t="s">
         <v>31</v>
       </c>
-      <c r="D146" s="4">
-        <v>44470</v>
-      </c>
-      <c r="E146" t="s">
-        <v>42</v>
+      <c r="E146" s="4">
+        <v>44572</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>11</v>
       </c>
-      <c r="B147" s="3">
+      <c r="B147" t="s">
+        <v>39</v>
+      </c>
+      <c r="C147" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C147" t="s">
+      <c r="D147" t="s">
         <v>31</v>
       </c>
-      <c r="D147" s="4">
-        <v>44470</v>
-      </c>
-      <c r="E147" t="s">
-        <v>42</v>
+      <c r="E147" s="4">
+        <v>44572</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>14</v>
       </c>
-      <c r="B148" s="3">
+      <c r="B148" t="s">
+        <v>37</v>
+      </c>
+      <c r="C148" s="3">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="C148" t="s">
+      <c r="D148" t="s">
         <v>31</v>
       </c>
-      <c r="D148" s="4">
-        <v>44470</v>
-      </c>
-      <c r="E148" t="s">
-        <v>42</v>
+      <c r="E148" s="4">
+        <v>44572</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B149" s="3">
+      <c r="B149" t="s">
+        <v>39</v>
+      </c>
+      <c r="C149" s="3">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="C149" t="s">
+      <c r="D149" t="s">
         <v>32</v>
       </c>
-      <c r="D149" s="4">
-        <v>44501</v>
-      </c>
-      <c r="E149" t="s">
-        <v>43</v>
+      <c r="E149" s="4">
+        <v>44621</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B150" s="3">
+      <c r="B150" t="s">
+        <v>38</v>
+      </c>
+      <c r="C150" s="3">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="C150" t="s">
+      <c r="D150" t="s">
         <v>32</v>
       </c>
-      <c r="D150" s="4">
-        <v>44501</v>
-      </c>
-      <c r="E150" t="s">
-        <v>43</v>
+      <c r="E150" s="4">
+        <v>44621</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B151" s="3">
+      <c r="B151" t="s">
+        <v>39</v>
+      </c>
+      <c r="C151" s="3">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="C151" t="s">
+      <c r="D151" t="s">
         <v>32</v>
       </c>
-      <c r="D151" s="4">
-        <v>44501</v>
-      </c>
-      <c r="E151" t="s">
-        <v>43</v>
+      <c r="E151" s="4">
+        <v>44621</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>17</v>
       </c>
-      <c r="B152" s="3">
+      <c r="B152" t="s">
+        <v>40</v>
+      </c>
+      <c r="C152" s="3">
         <v>0.11700000000000001</v>
       </c>
-      <c r="C152" t="s">
+      <c r="D152" t="s">
         <v>32</v>
       </c>
-      <c r="D152" s="4">
-        <v>44501</v>
-      </c>
-      <c r="E152" t="s">
-        <v>43</v>
+      <c r="E152" s="4">
+        <v>44621</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>3</v>
       </c>
-      <c r="B153" s="3">
+      <c r="B153" t="s">
+        <v>40</v>
+      </c>
+      <c r="C153" s="3">
         <v>0.02</v>
       </c>
-      <c r="C153" t="s">
+      <c r="D153" t="s">
         <v>32</v>
       </c>
-      <c r="D153" s="4">
-        <v>44501</v>
-      </c>
-      <c r="E153" t="s">
-        <v>43</v>
+      <c r="E153" s="4">
+        <v>44621</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>4</v>
       </c>
-      <c r="B154" s="3">
+      <c r="B154" t="s">
+        <v>37</v>
+      </c>
+      <c r="C154" s="3">
         <v>0.16500000000000001</v>
       </c>
-      <c r="C154" t="s">
+      <c r="D154" t="s">
         <v>32</v>
       </c>
-      <c r="D154" s="4">
-        <v>44501</v>
-      </c>
-      <c r="E154" t="s">
-        <v>43</v>
+      <c r="E154" s="4">
+        <v>44621</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>16</v>
       </c>
-      <c r="B155" s="3">
+      <c r="B155" t="s">
+        <v>38</v>
+      </c>
+      <c r="C155" s="3">
         <v>3.1E-2</v>
       </c>
-      <c r="C155" t="s">
+      <c r="D155" t="s">
         <v>32</v>
       </c>
-      <c r="D155" s="4">
-        <v>44501</v>
-      </c>
-      <c r="E155" t="s">
-        <v>43</v>
+      <c r="E155" s="4">
+        <v>44621</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>12</v>
       </c>
-      <c r="B156" s="3">
+      <c r="B156" t="s">
+        <v>40</v>
+      </c>
+      <c r="C156" s="3">
         <v>0.03</v>
       </c>
-      <c r="C156" t="s">
+      <c r="D156" t="s">
         <v>32</v>
       </c>
-      <c r="D156" s="4">
-        <v>44501</v>
-      </c>
-      <c r="E156" t="s">
-        <v>43</v>
+      <c r="E156" s="4">
+        <v>44621</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>18</v>
       </c>
-      <c r="B157" s="3">
+      <c r="B157" t="s">
+        <v>37</v>
+      </c>
+      <c r="C157" s="3">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="C157" t="s">
+      <c r="D157" t="s">
         <v>32</v>
       </c>
-      <c r="D157" s="4">
-        <v>44501</v>
-      </c>
-      <c r="E157" t="s">
-        <v>43</v>
+      <c r="E157" s="4">
+        <v>44621</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>5</v>
       </c>
-      <c r="B158" s="3">
+      <c r="B158" t="s">
+        <v>39</v>
+      </c>
+      <c r="C158" s="3">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="C158" t="s">
+      <c r="D158" t="s">
         <v>32</v>
       </c>
-      <c r="D158" s="4">
-        <v>44501</v>
-      </c>
-      <c r="E158" t="s">
-        <v>43</v>
+      <c r="E158" s="4">
+        <v>44621</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>6</v>
       </c>
-      <c r="B159" s="3">
+      <c r="B159" t="s">
+        <v>37</v>
+      </c>
+      <c r="C159" s="3">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="C159" t="s">
+      <c r="D159" t="s">
         <v>32</v>
       </c>
-      <c r="D159" s="4">
-        <v>44501</v>
-      </c>
-      <c r="E159" t="s">
-        <v>43</v>
+      <c r="E159" s="4">
+        <v>44621</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>7</v>
       </c>
-      <c r="B160" s="3">
+      <c r="B160" t="s">
+        <v>37</v>
+      </c>
+      <c r="C160" s="3">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="C160" t="s">
+      <c r="D160" t="s">
         <v>32</v>
       </c>
-      <c r="D160" s="4">
-        <v>44501</v>
-      </c>
-      <c r="E160" t="s">
-        <v>43</v>
+      <c r="E160" s="4">
+        <v>44621</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>8</v>
       </c>
-      <c r="B161" s="3">
+      <c r="B161" t="s">
+        <v>37</v>
+      </c>
+      <c r="C161" s="3">
         <v>0.126</v>
       </c>
-      <c r="C161" t="s">
+      <c r="D161" t="s">
         <v>32</v>
       </c>
-      <c r="D161" s="4">
-        <v>44501</v>
-      </c>
-      <c r="E161" t="s">
-        <v>43</v>
+      <c r="E161" s="4">
+        <v>44621</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>9</v>
       </c>
-      <c r="B162" s="3">
+      <c r="B162" t="s">
+        <v>40</v>
+      </c>
+      <c r="C162" s="3">
         <v>9.4E-2</v>
       </c>
-      <c r="C162" t="s">
+      <c r="D162" t="s">
         <v>32</v>
       </c>
-      <c r="D162" s="4">
-        <v>44501</v>
-      </c>
-      <c r="E162" t="s">
-        <v>43</v>
+      <c r="E162" s="4">
+        <v>44621</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>13</v>
       </c>
-      <c r="B163" s="3">
+      <c r="B163" t="s">
+        <v>38</v>
+      </c>
+      <c r="C163" s="3">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="C163" t="s">
+      <c r="D163" t="s">
         <v>32</v>
       </c>
-      <c r="D163" s="4">
-        <v>44501</v>
-      </c>
-      <c r="E163" t="s">
-        <v>43</v>
+      <c r="E163" s="4">
+        <v>44621</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>10</v>
       </c>
-      <c r="B164" s="3">
+      <c r="B164" t="s">
+        <v>38</v>
+      </c>
+      <c r="C164" s="3">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="C164" t="s">
+      <c r="D164" t="s">
         <v>32</v>
       </c>
-      <c r="D164" s="4">
-        <v>44501</v>
-      </c>
-      <c r="E164" t="s">
-        <v>43</v>
+      <c r="E164" s="4">
+        <v>44621</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>11</v>
       </c>
-      <c r="B165" s="3">
+      <c r="B165" t="s">
+        <v>39</v>
+      </c>
+      <c r="C165" s="3">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="C165" t="s">
+      <c r="D165" t="s">
         <v>32</v>
       </c>
-      <c r="D165" s="4">
-        <v>44501</v>
-      </c>
-      <c r="E165" t="s">
-        <v>43</v>
+      <c r="E165" s="4">
+        <v>44621</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>14</v>
       </c>
-      <c r="B166" s="3">
+      <c r="B166" t="s">
+        <v>37</v>
+      </c>
+      <c r="C166" s="3">
         <v>1.4E-2</v>
       </c>
-      <c r="C166" t="s">
+      <c r="D166" t="s">
         <v>32</v>
       </c>
-      <c r="D166" s="4">
-        <v>44501</v>
-      </c>
-      <c r="E166" t="s">
-        <v>43</v>
+      <c r="E166" s="4">
+        <v>44621</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B167" s="3">
+      <c r="B167" t="s">
+        <v>39</v>
+      </c>
+      <c r="C167" s="3">
         <v>0.01</v>
       </c>
-      <c r="C167" t="s">
+      <c r="D167" t="s">
         <v>33</v>
       </c>
-      <c r="D167" s="4">
-        <v>44531</v>
-      </c>
-      <c r="E167" t="s">
-        <v>44</v>
+      <c r="E167" s="4">
+        <v>44678</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B168" s="3">
+      <c r="B168" t="s">
+        <v>38</v>
+      </c>
+      <c r="C168" s="3">
         <v>2.3E-2</v>
       </c>
-      <c r="C168" t="s">
+      <c r="D168" t="s">
         <v>33</v>
       </c>
-      <c r="D168" s="4">
-        <v>44531</v>
-      </c>
-      <c r="E168" t="s">
-        <v>44</v>
+      <c r="E168" s="4">
+        <v>44678</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B169" s="3">
+      <c r="B169" t="s">
+        <v>39</v>
+      </c>
+      <c r="C169" s="3">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="C169" t="s">
+      <c r="D169" t="s">
         <v>33</v>
       </c>
-      <c r="D169" s="4">
-        <v>44531</v>
-      </c>
-      <c r="E169" t="s">
-        <v>44</v>
+      <c r="E169" s="4">
+        <v>44678</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>17</v>
       </c>
-      <c r="B170" s="3">
+      <c r="B170" t="s">
+        <v>40</v>
+      </c>
+      <c r="C170" s="3">
         <v>0.13800000000000001</v>
       </c>
-      <c r="C170" t="s">
+      <c r="D170" t="s">
         <v>33</v>
       </c>
-      <c r="D170" s="4">
-        <v>44531</v>
-      </c>
-      <c r="E170" t="s">
-        <v>44</v>
+      <c r="E170" s="4">
+        <v>44678</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>3</v>
       </c>
-      <c r="B171" s="3">
+      <c r="B171" t="s">
+        <v>40</v>
+      </c>
+      <c r="C171" s="3">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="C171" t="s">
+      <c r="D171" t="s">
         <v>33</v>
       </c>
-      <c r="D171" s="4">
-        <v>44531</v>
-      </c>
-      <c r="E171" t="s">
-        <v>44</v>
+      <c r="E171" s="4">
+        <v>44678</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>19</v>
       </c>
-      <c r="B172" s="3">
+      <c r="B172" t="s">
+        <v>38</v>
+      </c>
+      <c r="C172" s="3">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="C172" t="s">
+      <c r="D172" t="s">
         <v>33</v>
       </c>
-      <c r="D172" s="4">
-        <v>44531</v>
-      </c>
-      <c r="E172" t="s">
-        <v>44</v>
+      <c r="E172" s="4">
+        <v>44678</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>4</v>
       </c>
-      <c r="B173" s="3">
+      <c r="B173" t="s">
+        <v>37</v>
+      </c>
+      <c r="C173" s="3">
         <v>0.105</v>
       </c>
-      <c r="C173" t="s">
+      <c r="D173" t="s">
         <v>33</v>
       </c>
-      <c r="D173" s="4">
-        <v>44531</v>
-      </c>
-      <c r="E173" t="s">
-        <v>44</v>
+      <c r="E173" s="4">
+        <v>44678</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>16</v>
       </c>
-      <c r="B174" s="3">
+      <c r="B174" t="s">
+        <v>38</v>
+      </c>
+      <c r="C174" s="3">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="C174" t="s">
+      <c r="D174" t="s">
         <v>33</v>
       </c>
-      <c r="D174" s="4">
-        <v>44531</v>
-      </c>
-      <c r="E174" t="s">
-        <v>44</v>
+      <c r="E174" s="4">
+        <v>44678</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>12</v>
       </c>
-      <c r="B175" s="3">
+      <c r="B175" t="s">
+        <v>40</v>
+      </c>
+      <c r="C175" s="3">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="C175" t="s">
+      <c r="D175" t="s">
         <v>33</v>
       </c>
-      <c r="D175" s="4">
-        <v>44531</v>
-      </c>
-      <c r="E175" t="s">
-        <v>44</v>
+      <c r="E175" s="4">
+        <v>44678</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>18</v>
       </c>
-      <c r="B176" s="3">
+      <c r="B176" t="s">
+        <v>37</v>
+      </c>
+      <c r="C176" s="3">
         <v>0.02</v>
       </c>
-      <c r="C176" t="s">
+      <c r="D176" t="s">
         <v>33</v>
       </c>
-      <c r="D176" s="4">
-        <v>44531</v>
-      </c>
-      <c r="E176" t="s">
-        <v>44</v>
+      <c r="E176" s="4">
+        <v>44678</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>5</v>
       </c>
-      <c r="B177" s="3">
+      <c r="B177" t="s">
+        <v>39</v>
+      </c>
+      <c r="C177" s="3">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="C177" t="s">
+      <c r="D177" t="s">
         <v>33</v>
       </c>
-      <c r="D177" s="4">
-        <v>44531</v>
-      </c>
-      <c r="E177" t="s">
-        <v>44</v>
+      <c r="E177" s="4">
+        <v>44678</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>6</v>
       </c>
-      <c r="B178" s="3">
+      <c r="B178" t="s">
+        <v>37</v>
+      </c>
+      <c r="C178" s="3">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="C178" t="s">
+      <c r="D178" t="s">
         <v>33</v>
       </c>
-      <c r="D178" s="4">
-        <v>44531</v>
-      </c>
-      <c r="E178" t="s">
-        <v>44</v>
+      <c r="E178" s="4">
+        <v>44678</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>7</v>
       </c>
-      <c r="B179" s="3">
+      <c r="B179" t="s">
+        <v>37</v>
+      </c>
+      <c r="C179" s="3">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="C179" t="s">
+      <c r="D179" t="s">
         <v>33</v>
       </c>
-      <c r="D179" s="4">
-        <v>44531</v>
-      </c>
-      <c r="E179" t="s">
-        <v>44</v>
+      <c r="E179" s="4">
+        <v>44678</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>8</v>
       </c>
-      <c r="B180" s="3">
+      <c r="B180" t="s">
+        <v>37</v>
+      </c>
+      <c r="C180" s="3">
         <v>0.125</v>
       </c>
-      <c r="C180" t="s">
+      <c r="D180" t="s">
         <v>33</v>
       </c>
-      <c r="D180" s="4">
-        <v>44531</v>
-      </c>
-      <c r="E180" t="s">
-        <v>44</v>
+      <c r="E180" s="4">
+        <v>44678</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>9</v>
       </c>
-      <c r="B181" s="3">
+      <c r="B181" t="s">
+        <v>40</v>
+      </c>
+      <c r="C181" s="3">
         <v>9.0999999999999998E-2</v>
       </c>
-      <c r="C181" t="s">
+      <c r="D181" t="s">
         <v>33</v>
       </c>
-      <c r="D181" s="4">
-        <v>44531</v>
-      </c>
-      <c r="E181" t="s">
-        <v>44</v>
+      <c r="E181" s="4">
+        <v>44678</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>13</v>
       </c>
-      <c r="B182" s="3">
+      <c r="B182" t="s">
+        <v>38</v>
+      </c>
+      <c r="C182" s="3">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="C182" t="s">
+      <c r="D182" t="s">
         <v>33</v>
       </c>
-      <c r="D182" s="4">
-        <v>44531</v>
-      </c>
-      <c r="E182" t="s">
-        <v>44</v>
+      <c r="E182" s="4">
+        <v>44678</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>10</v>
       </c>
-      <c r="B183" s="3">
+      <c r="B183" t="s">
+        <v>38</v>
+      </c>
+      <c r="C183" s="3">
         <v>0.05</v>
       </c>
-      <c r="C183" t="s">
+      <c r="D183" t="s">
         <v>33</v>
       </c>
-      <c r="D183" s="4">
-        <v>44531</v>
-      </c>
-      <c r="E183" t="s">
-        <v>44</v>
+      <c r="E183" s="4">
+        <v>44678</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>11</v>
       </c>
-      <c r="B184" s="3">
+      <c r="B184" t="s">
+        <v>39</v>
+      </c>
+      <c r="C184" s="3">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="C184" t="s">
+      <c r="D184" t="s">
         <v>33</v>
       </c>
-      <c r="D184" s="4">
-        <v>44531</v>
-      </c>
-      <c r="E184" t="s">
-        <v>44</v>
+      <c r="E184" s="4">
+        <v>44678</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>14</v>
       </c>
-      <c r="B185" s="3">
+      <c r="B185" t="s">
+        <v>37</v>
+      </c>
+      <c r="C185" s="3">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="C185" t="s">
+      <c r="D185" t="s">
         <v>33</v>
       </c>
-      <c r="D185" s="4">
-        <v>44531</v>
-      </c>
-      <c r="E185" t="s">
-        <v>44</v>
+      <c r="E185" s="4">
+        <v>44678</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B186" s="3">
+      <c r="B186" t="s">
+        <v>39</v>
+      </c>
+      <c r="C186" s="3">
         <v>0.01</v>
       </c>
-      <c r="C186" t="s">
+      <c r="D186" t="s">
         <v>34</v>
       </c>
-      <c r="D186" s="4">
-        <v>44562</v>
-      </c>
-      <c r="E186" t="s">
-        <v>45</v>
+      <c r="E186" s="4">
+        <v>44734</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B187" s="3">
+      <c r="B187" t="s">
+        <v>38</v>
+      </c>
+      <c r="C187" s="3">
         <v>2.3E-2</v>
       </c>
-      <c r="C187" t="s">
+      <c r="D187" t="s">
         <v>34</v>
       </c>
-      <c r="D187" s="4">
-        <v>44562</v>
-      </c>
-      <c r="E187" t="s">
-        <v>45</v>
+      <c r="E187" s="4">
+        <v>44734</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B188" s="3">
+      <c r="B188" t="s">
+        <v>39</v>
+      </c>
+      <c r="C188" s="3">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="C188" t="s">
+      <c r="D188" t="s">
         <v>34</v>
       </c>
-      <c r="D188" s="4">
-        <v>44562</v>
-      </c>
-      <c r="E188" t="s">
-        <v>45</v>
+      <c r="E188" s="4">
+        <v>44734</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>17</v>
       </c>
-      <c r="B189" s="3">
+      <c r="B189" t="s">
+        <v>40</v>
+      </c>
+      <c r="C189" s="3">
         <v>0.14899999999999999</v>
       </c>
-      <c r="C189" t="s">
+      <c r="D189" t="s">
         <v>34</v>
       </c>
-      <c r="D189" s="4">
-        <v>44562</v>
-      </c>
-      <c r="E189" t="s">
-        <v>45</v>
+      <c r="E189" s="4">
+        <v>44734</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>3</v>
       </c>
-      <c r="B190" s="3">
+      <c r="B190" t="s">
+        <v>40</v>
+      </c>
+      <c r="C190" s="3">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="C190" t="s">
+      <c r="D190" t="s">
         <v>34</v>
       </c>
-      <c r="D190" s="4">
-        <v>44562</v>
-      </c>
-      <c r="E190" t="s">
-        <v>45</v>
+      <c r="E190" s="4">
+        <v>44734</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>19</v>
       </c>
-      <c r="B191" s="3">
+      <c r="B191" t="s">
+        <v>38</v>
+      </c>
+      <c r="C191" s="3">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="C191" t="s">
+      <c r="D191" t="s">
         <v>34</v>
       </c>
-      <c r="D191" s="4">
-        <v>44562</v>
-      </c>
-      <c r="E191" t="s">
-        <v>45</v>
+      <c r="E191" s="4">
+        <v>44734</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>4</v>
       </c>
-      <c r="B192" s="3">
+      <c r="B192" t="s">
+        <v>37</v>
+      </c>
+      <c r="C192" s="3">
         <v>0.115</v>
       </c>
-      <c r="C192" t="s">
+      <c r="D192" t="s">
         <v>34</v>
       </c>
-      <c r="D192" s="4">
-        <v>44562</v>
-      </c>
-      <c r="E192" t="s">
-        <v>45</v>
+      <c r="E192" s="4">
+        <v>44734</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>16</v>
       </c>
-      <c r="B193" s="3">
+      <c r="B193" t="s">
+        <v>38</v>
+      </c>
+      <c r="C193" s="3">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="C193" t="s">
+      <c r="D193" t="s">
         <v>34</v>
       </c>
-      <c r="D193" s="4">
-        <v>44562</v>
-      </c>
-      <c r="E193" t="s">
-        <v>45</v>
+      <c r="E193" s="4">
+        <v>44734</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>12</v>
       </c>
-      <c r="B194" s="3">
+      <c r="B194" t="s">
+        <v>40</v>
+      </c>
+      <c r="C194" s="3">
         <v>2.3E-2</v>
       </c>
-      <c r="C194" t="s">
+      <c r="D194" t="s">
         <v>34</v>
       </c>
-      <c r="D194" s="4">
-        <v>44562</v>
-      </c>
-      <c r="E194" t="s">
-        <v>45</v>
+      <c r="E194" s="4">
+        <v>44734</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>18</v>
       </c>
-      <c r="B195" s="3">
+      <c r="B195" t="s">
+        <v>37</v>
+      </c>
+      <c r="C195" s="3">
         <v>2.3E-2</v>
       </c>
-      <c r="C195" t="s">
+      <c r="D195" t="s">
         <v>34</v>
       </c>
-      <c r="D195" s="4">
-        <v>44562</v>
-      </c>
-      <c r="E195" t="s">
-        <v>45</v>
+      <c r="E195" s="4">
+        <v>44734</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>5</v>
       </c>
-      <c r="B196" s="3">
+      <c r="B196" t="s">
+        <v>39</v>
+      </c>
+      <c r="C196" s="3">
         <v>6.3E-2</v>
       </c>
-      <c r="C196" t="s">
+      <c r="D196" t="s">
         <v>34</v>
       </c>
-      <c r="D196" s="4">
-        <v>44562</v>
-      </c>
-      <c r="E196" t="s">
-        <v>45</v>
+      <c r="E196" s="4">
+        <v>44734</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>6</v>
       </c>
-      <c r="B197" s="3">
+      <c r="B197" t="s">
+        <v>37</v>
+      </c>
+      <c r="C197" s="3">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="C197" t="s">
+      <c r="D197" t="s">
         <v>34</v>
       </c>
-      <c r="D197" s="4">
-        <v>44562</v>
-      </c>
-      <c r="E197" t="s">
-        <v>45</v>
+      <c r="E197" s="4">
+        <v>44734</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>7</v>
       </c>
-      <c r="B198" s="3">
+      <c r="B198" t="s">
+        <v>37</v>
+      </c>
+      <c r="C198" s="3">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="C198" t="s">
+      <c r="D198" t="s">
         <v>34</v>
       </c>
-      <c r="D198" s="4">
-        <v>44562</v>
-      </c>
-      <c r="E198" t="s">
-        <v>45</v>
+      <c r="E198" s="4">
+        <v>44734</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>8</v>
       </c>
-      <c r="B199" s="3">
+      <c r="B199" t="s">
+        <v>37</v>
+      </c>
+      <c r="C199" s="3">
         <v>0.127</v>
       </c>
-      <c r="C199" t="s">
+      <c r="D199" t="s">
         <v>34</v>
       </c>
-      <c r="D199" s="4">
-        <v>44562</v>
-      </c>
-      <c r="E199" t="s">
-        <v>45</v>
+      <c r="E199" s="4">
+        <v>44734</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>9</v>
       </c>
-      <c r="B200" s="3">
+      <c r="B200" t="s">
+        <v>40</v>
+      </c>
+      <c r="C200" s="3">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="C200" t="s">
+      <c r="D200" t="s">
         <v>34</v>
       </c>
-      <c r="D200" s="4">
-        <v>44562</v>
-      </c>
-      <c r="E200" t="s">
-        <v>45</v>
+      <c r="E200" s="4">
+        <v>44734</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>13</v>
       </c>
-      <c r="B201" s="3">
+      <c r="B201" t="s">
+        <v>38</v>
+      </c>
+      <c r="C201" s="3">
         <v>4.7E-2</v>
       </c>
-      <c r="C201" t="s">
+      <c r="D201" t="s">
         <v>34</v>
       </c>
-      <c r="D201" s="4">
-        <v>44562</v>
-      </c>
-      <c r="E201" t="s">
-        <v>45</v>
+      <c r="E201" s="4">
+        <v>44734</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>10</v>
       </c>
-      <c r="B202" s="3">
+      <c r="B202" t="s">
+        <v>38</v>
+      </c>
+      <c r="C202" s="3">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="C202" t="s">
+      <c r="D202" t="s">
         <v>34</v>
       </c>
-      <c r="D202" s="4">
-        <v>44562</v>
-      </c>
-      <c r="E202" t="s">
-        <v>45</v>
+      <c r="E202" s="4">
+        <v>44734</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>11</v>
       </c>
-      <c r="B203" s="3">
+      <c r="B203" t="s">
+        <v>39</v>
+      </c>
+      <c r="C203" s="3">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="C203" t="s">
+      <c r="D203" t="s">
         <v>34</v>
       </c>
-      <c r="D203" s="4">
-        <v>44562</v>
-      </c>
-      <c r="E203" t="s">
-        <v>45</v>
+      <c r="E203" s="4">
+        <v>44734</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>14</v>
       </c>
-      <c r="B204" s="3">
+      <c r="B204" t="s">
+        <v>37</v>
+      </c>
+      <c r="C204" s="3">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="C204" t="s">
+      <c r="D204" t="s">
         <v>34</v>
       </c>
-      <c r="D204" s="4">
-        <v>44562</v>
-      </c>
-      <c r="E204" t="s">
-        <v>45</v>
+      <c r="E204" s="4">
+        <v>44734</v>
       </c>
     </row>
   </sheetData>
@@ -4887,158 +4842,2872 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BD7FDDC-F6D1-4E3B-A620-51E0A4E86657}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:G204"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="4">
+      <c r="F1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="4">
         <v>44197</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3">
-        <v>25</v>
-      </c>
-      <c r="C3" s="4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.104</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="4">
         <v>44197</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="E4" s="3">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="4">
+        <v>44197</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="3">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="4">
+        <v>44197</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.109</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="4">
+        <v>44197</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="3">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="4">
+        <v>44197</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.122</v>
+      </c>
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="4">
+        <v>44197</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="F9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="4">
+        <v>44197</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="4">
+        <v>44197</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="3">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="4">
+        <v>44197</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="F12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="4">
+        <v>44197</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3">
+        <v>3.1E-2</v>
+      </c>
+      <c r="F13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="4">
+        <v>44228</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="3">
+        <v>3.1E-2</v>
+      </c>
+      <c r="F14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="4">
+        <v>44228</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="3">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="F15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="4">
+        <v>44228</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="F16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="4">
+        <v>44228</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="3">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="F17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="4">
+        <v>44228</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="F18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="4">
+        <v>44228</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="3">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="F19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="4">
+        <v>44228</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="3">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="F20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="4">
+        <v>44228</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="F21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" s="4">
+        <v>44228</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="F22" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="4">
+        <v>44228</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="3">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="F23" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="4">
+        <v>44228</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="F24" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="4">
+        <v>44228</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" s="3">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="F25" t="s">
+        <v>23</v>
+      </c>
+      <c r="G25" s="4">
+        <v>44256</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="F26" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26" s="4">
+        <v>44256</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="F27" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" s="4">
+        <v>44256</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0.128</v>
+      </c>
+      <c r="F28" t="s">
+        <v>23</v>
+      </c>
+      <c r="G28" s="4">
+        <v>44256</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F29" t="s">
+        <v>23</v>
+      </c>
+      <c r="G29" s="4">
+        <v>44256</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0.156</v>
+      </c>
+      <c r="F30" t="s">
+        <v>23</v>
+      </c>
+      <c r="G30" s="4">
+        <v>44256</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="3">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="F31" t="s">
+        <v>23</v>
+      </c>
+      <c r="G31" s="4">
+        <v>44256</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="F32" t="s">
+        <v>23</v>
+      </c>
+      <c r="G32" s="4">
+        <v>44256</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="F33" t="s">
+        <v>23</v>
+      </c>
+      <c r="G33" s="4">
+        <v>44256</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="F34" t="s">
+        <v>23</v>
+      </c>
+      <c r="G34" s="4">
+        <v>44256</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F35" t="s">
+        <v>23</v>
+      </c>
+      <c r="G35" s="4">
+        <v>44256</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="3">
+        <v>7.8E-2</v>
+      </c>
+      <c r="F36" t="s">
+        <v>23</v>
+      </c>
+      <c r="G36" s="4">
+        <v>44256</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="3">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="F37" t="s">
+        <v>23</v>
+      </c>
+      <c r="G37" s="4">
+        <v>44256</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="4">
-        <v>44197</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5">
+      <c r="E38" s="3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F38" t="s">
+        <v>26</v>
+      </c>
+      <c r="G38" s="4">
+        <v>44287</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E39" s="3">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="F39" t="s">
+        <v>26</v>
+      </c>
+      <c r="G39" s="4">
+        <v>44287</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E40" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="F40" t="s">
+        <v>26</v>
+      </c>
+      <c r="G40" s="4">
+        <v>44287</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" s="3">
+        <v>4.7E-2</v>
+      </c>
+      <c r="F41" t="s">
+        <v>26</v>
+      </c>
+      <c r="G41" s="4">
+        <v>44287</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="F42" t="s">
+        <v>26</v>
+      </c>
+      <c r="G42" s="4">
+        <v>44287</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" s="3">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="F43" t="s">
+        <v>26</v>
+      </c>
+      <c r="G43" s="4">
+        <v>44287</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0.111</v>
+      </c>
+      <c r="F44" t="s">
+        <v>26</v>
+      </c>
+      <c r="G44" s="4">
+        <v>44287</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45" s="3">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="F45" t="s">
+        <v>26</v>
+      </c>
+      <c r="G45" s="4">
+        <v>44287</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" s="3">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="F46" t="s">
+        <v>26</v>
+      </c>
+      <c r="G46" s="4">
+        <v>44287</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="F47" t="s">
+        <v>26</v>
+      </c>
+      <c r="G47" s="4">
+        <v>44287</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="F48" t="s">
+        <v>26</v>
+      </c>
+      <c r="G48" s="4">
+        <v>44287</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="F49" t="s">
+        <v>26</v>
+      </c>
+      <c r="G49" s="4">
+        <v>44287</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="4">
-        <v>44197</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6">
+      <c r="E50" s="3">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="F50" t="s">
+        <v>26</v>
+      </c>
+      <c r="G50" s="4">
+        <v>44287</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="F51" t="s">
+        <v>26</v>
+      </c>
+      <c r="G51" s="4">
+        <v>44287</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>14</v>
+      </c>
+      <c r="E52" s="3">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="F52" t="s">
+        <v>26</v>
+      </c>
+      <c r="G52" s="4">
+        <v>44287</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E53" s="3">
+        <v>2.3E-2</v>
+      </c>
+      <c r="F53" t="s">
+        <v>24</v>
+      </c>
+      <c r="G53" s="4">
+        <v>44317</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E54" s="3">
+        <v>9.4E-2</v>
+      </c>
+      <c r="F54" t="s">
+        <v>24</v>
+      </c>
+      <c r="G54" s="4">
+        <v>44317</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>3</v>
+      </c>
+      <c r="E55" s="3">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="F55" t="s">
+        <v>24</v>
+      </c>
+      <c r="G55" s="4">
+        <v>44317</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>4</v>
+      </c>
+      <c r="E56" s="3">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="F56" t="s">
+        <v>24</v>
+      </c>
+      <c r="G56" s="4">
+        <v>44317</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>12</v>
+      </c>
+      <c r="E57" s="3">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="F57" t="s">
+        <v>24</v>
+      </c>
+      <c r="G57" s="4">
+        <v>44317</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>5</v>
+      </c>
+      <c r="E58" s="3">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="F58" t="s">
+        <v>24</v>
+      </c>
+      <c r="G58" s="4">
+        <v>44317</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>6</v>
+      </c>
+      <c r="E59" s="3">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="F59" t="s">
+        <v>24</v>
+      </c>
+      <c r="G59" s="4">
+        <v>44317</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>7</v>
+      </c>
+      <c r="E60" s="3">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="F60" t="s">
+        <v>24</v>
+      </c>
+      <c r="G60" s="4">
+        <v>44317</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61" s="3">
+        <v>0.151</v>
+      </c>
+      <c r="F61" t="s">
+        <v>24</v>
+      </c>
+      <c r="G61" s="4">
+        <v>44317</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>9</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0.114</v>
+      </c>
+      <c r="F62" t="s">
+        <v>24</v>
+      </c>
+      <c r="G62" s="4">
+        <v>44317</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>13</v>
+      </c>
+      <c r="E63" s="3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="F63" t="s">
+        <v>24</v>
+      </c>
+      <c r="G63" s="4">
+        <v>44317</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64" s="3">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="F64" t="s">
+        <v>24</v>
+      </c>
+      <c r="G64" s="4">
+        <v>44317</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>11</v>
+      </c>
+      <c r="E65" s="3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="F65" t="s">
+        <v>24</v>
+      </c>
+      <c r="G65" s="4">
+        <v>44317</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>14</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="F66" t="s">
+        <v>24</v>
+      </c>
+      <c r="G66" s="4">
+        <v>44317</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="4">
-        <v>44228</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7">
+      <c r="E67" s="3">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="F67" t="s">
+        <v>27</v>
+      </c>
+      <c r="G67" s="4">
+        <v>44348</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E68" s="3">
+        <v>1.9E-2</v>
+      </c>
+      <c r="F68" t="s">
+        <v>27</v>
+      </c>
+      <c r="G68" s="4">
+        <v>44348</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E69" s="3">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="F69" t="s">
+        <v>27</v>
+      </c>
+      <c r="G69" s="4">
+        <v>44348</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>3</v>
+      </c>
+      <c r="E70" s="3">
+        <v>3.9E-2</v>
+      </c>
+      <c r="F70" t="s">
+        <v>27</v>
+      </c>
+      <c r="G70" s="4">
+        <v>44348</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>4</v>
+      </c>
+      <c r="E71" s="3">
+        <v>0.159</v>
+      </c>
+      <c r="F71" t="s">
+        <v>27</v>
+      </c>
+      <c r="G71" s="4">
+        <v>44348</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>12</v>
+      </c>
+      <c r="E72" s="3">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="F72" t="s">
+        <v>27</v>
+      </c>
+      <c r="G72" s="4">
+        <v>44348</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>5</v>
+      </c>
+      <c r="E73" s="3">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="F73" t="s">
+        <v>27</v>
+      </c>
+      <c r="G73" s="4">
+        <v>44348</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>6</v>
+      </c>
+      <c r="E74" s="3">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="F74" t="s">
+        <v>27</v>
+      </c>
+      <c r="G74" s="4">
+        <v>44348</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>7</v>
+      </c>
+      <c r="E75" s="3">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="F75" t="s">
+        <v>27</v>
+      </c>
+      <c r="G75" s="4">
+        <v>44348</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>8</v>
+      </c>
+      <c r="E76" s="3">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="F76" t="s">
+        <v>27</v>
+      </c>
+      <c r="G76" s="4">
+        <v>44348</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>9</v>
+      </c>
+      <c r="E77" s="3">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="F77" t="s">
+        <v>27</v>
+      </c>
+      <c r="G77" s="4">
+        <v>44348</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>13</v>
+      </c>
+      <c r="E78" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="F78" t="s">
+        <v>27</v>
+      </c>
+      <c r="G78" s="4">
+        <v>44348</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>10</v>
+      </c>
+      <c r="E79" s="3">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="F79" t="s">
+        <v>27</v>
+      </c>
+      <c r="G79" s="4">
+        <v>44348</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>11</v>
+      </c>
+      <c r="E80" s="3">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="F80" t="s">
+        <v>27</v>
+      </c>
+      <c r="G80" s="4">
+        <v>44348</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>14</v>
+      </c>
+      <c r="E81" s="3">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="F81" t="s">
+        <v>27</v>
+      </c>
+      <c r="G81" s="4">
+        <v>44348</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E82" s="3">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="F82" t="s">
+        <v>28</v>
+      </c>
+      <c r="G82" s="4">
+        <v>44378</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E83" s="3">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="F83" t="s">
+        <v>28</v>
+      </c>
+      <c r="G83" s="4">
+        <v>44378</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E84" s="3">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="F84" t="s">
+        <v>28</v>
+      </c>
+      <c r="G84" s="4">
+        <v>44378</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>3</v>
+      </c>
+      <c r="E85" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="F85" t="s">
+        <v>28</v>
+      </c>
+      <c r="G85" s="4">
+        <v>44378</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>4</v>
+      </c>
+      <c r="E86" s="3">
+        <v>0.159</v>
+      </c>
+      <c r="F86" t="s">
+        <v>28</v>
+      </c>
+      <c r="G86" s="4">
+        <v>44378</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>16</v>
+      </c>
+      <c r="E87" s="3">
+        <v>3.1E-2</v>
+      </c>
+      <c r="F87" t="s">
+        <v>28</v>
+      </c>
+      <c r="G87" s="4">
+        <v>44378</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>12</v>
+      </c>
+      <c r="E88" s="3">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="F88" t="s">
+        <v>28</v>
+      </c>
+      <c r="G88" s="4">
+        <v>44378</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="E89" s="3">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="F89" t="s">
+        <v>28</v>
+      </c>
+      <c r="G89" s="4">
+        <v>44378</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>6</v>
+      </c>
+      <c r="E90" s="3">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="F90" t="s">
+        <v>28</v>
+      </c>
+      <c r="G90" s="4">
+        <v>44378</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>7</v>
+      </c>
+      <c r="E91" s="3">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="F91" t="s">
+        <v>28</v>
+      </c>
+      <c r="G91" s="4">
+        <v>44378</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>8</v>
+      </c>
+      <c r="E92" s="3">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="F92" t="s">
+        <v>28</v>
+      </c>
+      <c r="G92" s="4">
+        <v>44378</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>9</v>
+      </c>
+      <c r="E93" s="3">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="F93" t="s">
+        <v>28</v>
+      </c>
+      <c r="G93" s="4">
+        <v>44378</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>13</v>
+      </c>
+      <c r="E94" s="3">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="F94" t="s">
+        <v>28</v>
+      </c>
+      <c r="G94" s="4">
+        <v>44378</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>10</v>
+      </c>
+      <c r="E95" s="3">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="F95" t="s">
+        <v>28</v>
+      </c>
+      <c r="G95" s="4">
+        <v>44378</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>11</v>
+      </c>
+      <c r="E96" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="F96" t="s">
+        <v>28</v>
+      </c>
+      <c r="G96" s="4">
+        <v>44378</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>14</v>
+      </c>
+      <c r="E97" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="F97" t="s">
+        <v>28</v>
+      </c>
+      <c r="G97" s="4">
+        <v>44378</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A98" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E98" s="3">
+        <v>2.7E-2</v>
+      </c>
+      <c r="F98" t="s">
+        <v>29</v>
+      </c>
+      <c r="G98" s="4">
+        <v>44409</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A99" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E99" s="3">
+        <v>1.6E-2</v>
+      </c>
+      <c r="F99" t="s">
+        <v>29</v>
+      </c>
+      <c r="G99" s="4">
+        <v>44409</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A100" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E100" s="3">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="F100" t="s">
+        <v>29</v>
+      </c>
+      <c r="G100" s="4">
+        <v>44409</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>3</v>
+      </c>
+      <c r="E101" s="3">
+        <v>3.9E-2</v>
+      </c>
+      <c r="F101" t="s">
+        <v>29</v>
+      </c>
+      <c r="G101" s="4">
+        <v>44409</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>4</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="F102" t="s">
+        <v>29</v>
+      </c>
+      <c r="G102" s="4">
+        <v>44409</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>16</v>
+      </c>
+      <c r="E103" s="3">
+        <v>1.4E-2</v>
+      </c>
+      <c r="F103" t="s">
+        <v>29</v>
+      </c>
+      <c r="G103" s="4">
+        <v>44409</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>12</v>
+      </c>
+      <c r="E104" s="3">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="F104" t="s">
+        <v>29</v>
+      </c>
+      <c r="G104" s="4">
+        <v>44409</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>5</v>
+      </c>
+      <c r="E105" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F105" t="s">
+        <v>29</v>
+      </c>
+      <c r="G105" s="4">
+        <v>44409</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>6</v>
+      </c>
+      <c r="E106" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="F106" t="s">
+        <v>29</v>
+      </c>
+      <c r="G106" s="4">
+        <v>44409</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>7</v>
+      </c>
+      <c r="E107" s="3">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="F107" t="s">
+        <v>29</v>
+      </c>
+      <c r="G107" s="4">
+        <v>44409</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>8</v>
+      </c>
+      <c r="E108" s="3">
+        <v>0.154</v>
+      </c>
+      <c r="F108" t="s">
+        <v>29</v>
+      </c>
+      <c r="G108" s="4">
+        <v>44409</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>9</v>
+      </c>
+      <c r="E109" s="3">
+        <v>0.13</v>
+      </c>
+      <c r="F109" t="s">
+        <v>29</v>
+      </c>
+      <c r="G109" s="4">
+        <v>44409</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>13</v>
+      </c>
+      <c r="E110" s="3">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="F110" t="s">
+        <v>29</v>
+      </c>
+      <c r="G110" s="4">
+        <v>44409</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>10</v>
+      </c>
+      <c r="E111" s="3">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="F111" t="s">
+        <v>29</v>
+      </c>
+      <c r="G111" s="4">
+        <v>44409</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>11</v>
+      </c>
+      <c r="E112" s="3">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="F112" t="s">
+        <v>29</v>
+      </c>
+      <c r="G112" s="4">
+        <v>44409</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>14</v>
+      </c>
+      <c r="E113" s="3">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="F113" t="s">
+        <v>29</v>
+      </c>
+      <c r="G113" s="4">
+        <v>44409</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A114" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E114" s="3">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="F114" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="4">
-        <v>44228</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8">
-        <v>40</v>
-      </c>
-      <c r="C8" s="4">
-        <v>44228</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9">
+      <c r="G114" s="4">
+        <v>44440</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A115" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E115" s="3">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="F115" t="s">
+        <v>30</v>
+      </c>
+      <c r="G115" s="4">
+        <v>44440</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A116" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E116" s="3">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="F116" t="s">
+        <v>30</v>
+      </c>
+      <c r="G116" s="4">
+        <v>44440</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>17</v>
+      </c>
+      <c r="E117" s="3">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="F117" t="s">
+        <v>30</v>
+      </c>
+      <c r="G117" s="4">
+        <v>44440</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>3</v>
+      </c>
+      <c r="E118" s="3">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="F118" t="s">
+        <v>30</v>
+      </c>
+      <c r="G118" s="4">
+        <v>44440</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>4</v>
+      </c>
+      <c r="E119" s="3">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="F119" t="s">
+        <v>30</v>
+      </c>
+      <c r="G119" s="4">
+        <v>44440</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>16</v>
+      </c>
+      <c r="E120" s="3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F120" t="s">
+        <v>30</v>
+      </c>
+      <c r="G120" s="4">
+        <v>44440</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>12</v>
+      </c>
+      <c r="E121" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="F121" t="s">
+        <v>30</v>
+      </c>
+      <c r="G121" s="4">
+        <v>44440</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>5</v>
+      </c>
+      <c r="E122" s="3">
+        <v>5.5E-2</v>
+      </c>
+      <c r="F122" t="s">
+        <v>30</v>
+      </c>
+      <c r="G122" s="4">
+        <v>44440</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>6</v>
+      </c>
+      <c r="E123" s="3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F123" t="s">
+        <v>30</v>
+      </c>
+      <c r="G123" s="4">
+        <v>44440</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>7</v>
+      </c>
+      <c r="E124" s="3">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="F124" t="s">
+        <v>30</v>
+      </c>
+      <c r="G124" s="4">
+        <v>44440</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>8</v>
+      </c>
+      <c r="E125" s="3">
+        <v>0.152</v>
+      </c>
+      <c r="F125" t="s">
+        <v>30</v>
+      </c>
+      <c r="G125" s="4">
+        <v>44440</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>9</v>
+      </c>
+      <c r="E126" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="F126" t="s">
+        <v>30</v>
+      </c>
+      <c r="G126" s="4">
+        <v>44440</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>13</v>
+      </c>
+      <c r="E127" s="3">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="F127" t="s">
+        <v>30</v>
+      </c>
+      <c r="G127" s="4">
+        <v>44440</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>10</v>
+      </c>
+      <c r="E128" s="3">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="F128" t="s">
+        <v>30</v>
+      </c>
+      <c r="G128" s="4">
+        <v>44440</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>11</v>
+      </c>
+      <c r="E129" s="3">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="F129" t="s">
+        <v>30</v>
+      </c>
+      <c r="G129" s="4">
+        <v>44440</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>14</v>
+      </c>
+      <c r="E130" s="3">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="F130" t="s">
+        <v>30</v>
+      </c>
+      <c r="G130" s="4">
+        <v>44440</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A131" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="4">
-        <v>44228</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10">
-        <v>40</v>
-      </c>
-      <c r="C10" s="4">
-        <v>44256</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11">
-        <v>55</v>
-      </c>
-      <c r="C11" s="4">
-        <v>44256</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12">
+      <c r="E131" s="3">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="F131" t="s">
+        <v>31</v>
+      </c>
+      <c r="G131" s="4">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A132" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E132" s="3">
+        <v>1.9E-2</v>
+      </c>
+      <c r="F132" t="s">
+        <v>31</v>
+      </c>
+      <c r="G132" s="4">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A133" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E133" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="F133" t="s">
+        <v>31</v>
+      </c>
+      <c r="G133" s="4">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>17</v>
+      </c>
+      <c r="E134" s="3">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="F134" t="s">
+        <v>31</v>
+      </c>
+      <c r="G134" s="4">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>3</v>
+      </c>
+      <c r="E135" s="3">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="F135" t="s">
+        <v>31</v>
+      </c>
+      <c r="G135" s="4">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>4</v>
+      </c>
+      <c r="E136" s="3">
+        <v>0.159</v>
+      </c>
+      <c r="F136" t="s">
+        <v>31</v>
+      </c>
+      <c r="G136" s="4">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>16</v>
+      </c>
+      <c r="E137" s="3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F137" t="s">
+        <v>31</v>
+      </c>
+      <c r="G137" s="4">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>12</v>
+      </c>
+      <c r="E138" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="F138" t="s">
+        <v>31</v>
+      </c>
+      <c r="G138" s="4">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>18</v>
+      </c>
+      <c r="E139" s="3">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="F139" t="s">
+        <v>31</v>
+      </c>
+      <c r="G139" s="4">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="4">
-        <v>44256</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13">
+      <c r="E140" s="3">
+        <v>3.9E-2</v>
+      </c>
+      <c r="F140" t="s">
+        <v>31</v>
+      </c>
+      <c r="G140" s="4">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>6</v>
+      </c>
+      <c r="E141" s="3">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="F141" t="s">
+        <v>31</v>
+      </c>
+      <c r="G141" s="4">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>7</v>
+      </c>
+      <c r="E142" s="3">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="F142" t="s">
+        <v>31</v>
+      </c>
+      <c r="G142" s="4">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>8</v>
+      </c>
+      <c r="E143" s="3">
+        <v>0.13</v>
+      </c>
+      <c r="F143" t="s">
+        <v>31</v>
+      </c>
+      <c r="G143" s="4">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>9</v>
+      </c>
+      <c r="E144" s="3">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="F144" t="s">
+        <v>31</v>
+      </c>
+      <c r="G144" s="4">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>13</v>
+      </c>
+      <c r="E145" s="3">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="F145" t="s">
+        <v>31</v>
+      </c>
+      <c r="G145" s="4">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>10</v>
+      </c>
+      <c r="E146" s="3">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="F146" t="s">
+        <v>31</v>
+      </c>
+      <c r="G146" s="4">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>11</v>
+      </c>
+      <c r="E147" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F147" t="s">
+        <v>31</v>
+      </c>
+      <c r="G147" s="4">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>14</v>
+      </c>
+      <c r="E148" s="3">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F148" t="s">
+        <v>31</v>
+      </c>
+      <c r="G148" s="4">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A149" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E149" s="3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="F149" t="s">
+        <v>32</v>
+      </c>
+      <c r="G149" s="4">
+        <v>44501</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A150" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E150" s="3">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="F150" t="s">
+        <v>32</v>
+      </c>
+      <c r="G150" s="4">
+        <v>44501</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A151" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E151" s="3">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="F151" t="s">
+        <v>32</v>
+      </c>
+      <c r="G151" s="4">
+        <v>44501</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>17</v>
+      </c>
+      <c r="E152" s="3">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="F152" t="s">
+        <v>32</v>
+      </c>
+      <c r="G152" s="4">
+        <v>44501</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>3</v>
+      </c>
+      <c r="E153" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="F153" t="s">
+        <v>32</v>
+      </c>
+      <c r="G153" s="4">
+        <v>44501</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>4</v>
+      </c>
+      <c r="E154" s="3">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="F154" t="s">
+        <v>32</v>
+      </c>
+      <c r="G154" s="4">
+        <v>44501</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="4">
-        <v>44256</v>
+      <c r="E155" s="3">
+        <v>3.1E-2</v>
+      </c>
+      <c r="F155" t="s">
+        <v>32</v>
+      </c>
+      <c r="G155" s="4">
+        <v>44501</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>12</v>
+      </c>
+      <c r="E156" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="F156" t="s">
+        <v>32</v>
+      </c>
+      <c r="G156" s="4">
+        <v>44501</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>18</v>
+      </c>
+      <c r="E157" s="3">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="F157" t="s">
+        <v>32</v>
+      </c>
+      <c r="G157" s="4">
+        <v>44501</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>5</v>
+      </c>
+      <c r="E158" s="3">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="F158" t="s">
+        <v>32</v>
+      </c>
+      <c r="G158" s="4">
+        <v>44501</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>6</v>
+      </c>
+      <c r="E159" s="3">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="F159" t="s">
+        <v>32</v>
+      </c>
+      <c r="G159" s="4">
+        <v>44501</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>7</v>
+      </c>
+      <c r="E160" s="3">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="F160" t="s">
+        <v>32</v>
+      </c>
+      <c r="G160" s="4">
+        <v>44501</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>8</v>
+      </c>
+      <c r="E161" s="3">
+        <v>0.126</v>
+      </c>
+      <c r="F161" t="s">
+        <v>32</v>
+      </c>
+      <c r="G161" s="4">
+        <v>44501</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>9</v>
+      </c>
+      <c r="E162" s="3">
+        <v>9.4E-2</v>
+      </c>
+      <c r="F162" t="s">
+        <v>32</v>
+      </c>
+      <c r="G162" s="4">
+        <v>44501</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>13</v>
+      </c>
+      <c r="E163" s="3">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="F163" t="s">
+        <v>32</v>
+      </c>
+      <c r="G163" s="4">
+        <v>44501</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>10</v>
+      </c>
+      <c r="E164" s="3">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="F164" t="s">
+        <v>32</v>
+      </c>
+      <c r="G164" s="4">
+        <v>44501</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>11</v>
+      </c>
+      <c r="E165" s="3">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="F165" t="s">
+        <v>32</v>
+      </c>
+      <c r="G165" s="4">
+        <v>44501</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>14</v>
+      </c>
+      <c r="E166" s="3">
+        <v>1.4E-2</v>
+      </c>
+      <c r="F166" t="s">
+        <v>32</v>
+      </c>
+      <c r="G166" s="4">
+        <v>44501</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A167" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E167" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="F167" t="s">
+        <v>33</v>
+      </c>
+      <c r="G167" s="4">
+        <v>44531</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A168" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E168" s="3">
+        <v>2.3E-2</v>
+      </c>
+      <c r="F168" t="s">
+        <v>33</v>
+      </c>
+      <c r="G168" s="4">
+        <v>44531</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A169" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E169" s="3">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="F169" t="s">
+        <v>33</v>
+      </c>
+      <c r="G169" s="4">
+        <v>44531</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>17</v>
+      </c>
+      <c r="E170" s="3">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="F170" t="s">
+        <v>33</v>
+      </c>
+      <c r="G170" s="4">
+        <v>44531</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>3</v>
+      </c>
+      <c r="E171" s="3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F171" t="s">
+        <v>33</v>
+      </c>
+      <c r="G171" s="4">
+        <v>44531</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>19</v>
+      </c>
+      <c r="E172" s="3">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="F172" t="s">
+        <v>33</v>
+      </c>
+      <c r="G172" s="4">
+        <v>44531</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>4</v>
+      </c>
+      <c r="E173" s="3">
+        <v>0.105</v>
+      </c>
+      <c r="F173" t="s">
+        <v>33</v>
+      </c>
+      <c r="G173" s="4">
+        <v>44531</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>16</v>
+      </c>
+      <c r="E174" s="3">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="F174" t="s">
+        <v>33</v>
+      </c>
+      <c r="G174" s="4">
+        <v>44531</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>12</v>
+      </c>
+      <c r="E175" s="3">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="F175" t="s">
+        <v>33</v>
+      </c>
+      <c r="G175" s="4">
+        <v>44531</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>18</v>
+      </c>
+      <c r="E176" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="F176" t="s">
+        <v>33</v>
+      </c>
+      <c r="G176" s="4">
+        <v>44531</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>5</v>
+      </c>
+      <c r="E177" s="3">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="F177" t="s">
+        <v>33</v>
+      </c>
+      <c r="G177" s="4">
+        <v>44531</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>6</v>
+      </c>
+      <c r="E178" s="3">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="F178" t="s">
+        <v>33</v>
+      </c>
+      <c r="G178" s="4">
+        <v>44531</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>7</v>
+      </c>
+      <c r="E179" s="3">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="F179" t="s">
+        <v>33</v>
+      </c>
+      <c r="G179" s="4">
+        <v>44531</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>8</v>
+      </c>
+      <c r="E180" s="3">
+        <v>0.125</v>
+      </c>
+      <c r="F180" t="s">
+        <v>33</v>
+      </c>
+      <c r="G180" s="4">
+        <v>44531</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>9</v>
+      </c>
+      <c r="E181" s="3">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="F181" t="s">
+        <v>33</v>
+      </c>
+      <c r="G181" s="4">
+        <v>44531</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>13</v>
+      </c>
+      <c r="E182" s="3">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="F182" t="s">
+        <v>33</v>
+      </c>
+      <c r="G182" s="4">
+        <v>44531</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>10</v>
+      </c>
+      <c r="E183" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="F183" t="s">
+        <v>33</v>
+      </c>
+      <c r="G183" s="4">
+        <v>44531</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>11</v>
+      </c>
+      <c r="E184" s="3">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="F184" t="s">
+        <v>33</v>
+      </c>
+      <c r="G184" s="4">
+        <v>44531</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>14</v>
+      </c>
+      <c r="E185" s="3">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="F185" t="s">
+        <v>33</v>
+      </c>
+      <c r="G185" s="4">
+        <v>44531</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A186" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E186" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="F186" t="s">
+        <v>34</v>
+      </c>
+      <c r="G186" s="4">
+        <v>44562</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A187" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E187" s="3">
+        <v>2.3E-2</v>
+      </c>
+      <c r="F187" t="s">
+        <v>34</v>
+      </c>
+      <c r="G187" s="4">
+        <v>44562</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A188" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E188" s="3">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="F188" t="s">
+        <v>34</v>
+      </c>
+      <c r="G188" s="4">
+        <v>44562</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>17</v>
+      </c>
+      <c r="E189" s="3">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="F189" t="s">
+        <v>34</v>
+      </c>
+      <c r="G189" s="4">
+        <v>44562</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>3</v>
+      </c>
+      <c r="E190" s="3">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="F190" t="s">
+        <v>34</v>
+      </c>
+      <c r="G190" s="4">
+        <v>44562</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>19</v>
+      </c>
+      <c r="E191" s="3">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="F191" t="s">
+        <v>34</v>
+      </c>
+      <c r="G191" s="4">
+        <v>44562</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>4</v>
+      </c>
+      <c r="E192" s="3">
+        <v>0.115</v>
+      </c>
+      <c r="F192" t="s">
+        <v>34</v>
+      </c>
+      <c r="G192" s="4">
+        <v>44562</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>16</v>
+      </c>
+      <c r="E193" s="3">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="F193" t="s">
+        <v>34</v>
+      </c>
+      <c r="G193" s="4">
+        <v>44562</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>12</v>
+      </c>
+      <c r="E194" s="3">
+        <v>2.3E-2</v>
+      </c>
+      <c r="F194" t="s">
+        <v>34</v>
+      </c>
+      <c r="G194" s="4">
+        <v>44562</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>18</v>
+      </c>
+      <c r="E195" s="3">
+        <v>2.3E-2</v>
+      </c>
+      <c r="F195" t="s">
+        <v>34</v>
+      </c>
+      <c r="G195" s="4">
+        <v>44562</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>5</v>
+      </c>
+      <c r="E196" s="3">
+        <v>6.3E-2</v>
+      </c>
+      <c r="F196" t="s">
+        <v>34</v>
+      </c>
+      <c r="G196" s="4">
+        <v>44562</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>6</v>
+      </c>
+      <c r="E197" s="3">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="F197" t="s">
+        <v>34</v>
+      </c>
+      <c r="G197" s="4">
+        <v>44562</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>7</v>
+      </c>
+      <c r="E198" s="3">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="F198" t="s">
+        <v>34</v>
+      </c>
+      <c r="G198" s="4">
+        <v>44562</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>8</v>
+      </c>
+      <c r="E199" s="3">
+        <v>0.127</v>
+      </c>
+      <c r="F199" t="s">
+        <v>34</v>
+      </c>
+      <c r="G199" s="4">
+        <v>44562</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>9</v>
+      </c>
+      <c r="E200" s="3">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="F200" t="s">
+        <v>34</v>
+      </c>
+      <c r="G200" s="4">
+        <v>44562</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>13</v>
+      </c>
+      <c r="E201" s="3">
+        <v>4.7E-2</v>
+      </c>
+      <c r="F201" t="s">
+        <v>34</v>
+      </c>
+      <c r="G201" s="4">
+        <v>44562</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>10</v>
+      </c>
+      <c r="E202" s="3">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="F202" t="s">
+        <v>34</v>
+      </c>
+      <c r="G202" s="4">
+        <v>44562</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>11</v>
+      </c>
+      <c r="E203" s="3">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="F203" t="s">
+        <v>34</v>
+      </c>
+      <c r="G203" s="4">
+        <v>44562</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>14</v>
+      </c>
+      <c r="E204" s="3">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="F204" t="s">
+        <v>34</v>
+      </c>
+      <c r="G204" s="4">
+        <v>44562</v>
       </c>
     </row>
   </sheetData>
